--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="945" windowWidth="21900" windowHeight="15990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
-    <sheet name="T06_LockBox_Bom1" sheetId="1" r:id="rId1"/>
-    <sheet name="Module Cost" sheetId="2" r:id="rId2"/>
+    <sheet name="mBom" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Part</t>
   </si>
@@ -37,72 +36,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>330pF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>Sol_ctrl</t>
-  </si>
-  <si>
-    <t>1X02</t>
-  </si>
-  <si>
-    <t>ICSP</t>
-  </si>
-  <si>
-    <t>2X03</t>
-  </si>
-  <si>
-    <t>LCD</t>
-  </si>
-  <si>
-    <t>2X04</t>
-  </si>
-  <si>
-    <t>UNUSED</t>
-  </si>
-  <si>
-    <t>2X05</t>
-  </si>
-  <si>
-    <t>2N3904</t>
-  </si>
-  <si>
-    <t>ATMEGA328</t>
-  </si>
-  <si>
-    <t>LD29150DT33R</t>
-  </si>
-  <si>
-    <t>PJ-102A</t>
-  </si>
-  <si>
-    <t>ETHERNET_JACK</t>
-  </si>
-  <si>
     <t>Manufacturer Part Number</t>
   </si>
   <si>
-    <t>10V</t>
-  </si>
-  <si>
-    <t>25V</t>
-  </si>
-  <si>
-    <t>PINHD</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>Digikey Part Number</t>
   </si>
   <si>
@@ -115,112 +51,7 @@
     <t>Quantity/Extended Price</t>
   </si>
   <si>
-    <t>SN74HC148D</t>
-  </si>
-  <si>
-    <t>TIP102</t>
-  </si>
-  <si>
-    <t>1/8W</t>
-  </si>
-  <si>
     <t>ADAFRUIT</t>
-  </si>
-  <si>
-    <t>NES CONTROLLER</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>4.7K</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>PART</t>
-  </si>
-  <si>
-    <t>PCB - Main</t>
-  </si>
-  <si>
-    <t>PCB - LCD</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Board </t>
-  </si>
-  <si>
-    <t>LCD Board</t>
-  </si>
-  <si>
-    <t>1/4W</t>
-  </si>
-  <si>
-    <t>Nintendo Controller</t>
-  </si>
-  <si>
-    <t>ETHERNET CABLE</t>
-  </si>
-  <si>
-    <t>THE BOX</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>WOOD</t>
-  </si>
-  <si>
-    <t>HINGE</t>
-  </si>
-  <si>
-    <t>SCREWS</t>
-  </si>
-  <si>
-    <t>LATCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RJ45 </t>
-  </si>
-  <si>
-    <t>1/2in 2ftx4ft plywood</t>
-  </si>
-  <si>
-    <t>small piano hinges</t>
-  </si>
-  <si>
-    <t>8 small wood screws</t>
-  </si>
-  <si>
-    <t>3D Printed latch</t>
-  </si>
-  <si>
-    <t>Barrel power jack</t>
-  </si>
-  <si>
-    <t>Ethernet jeck</t>
-  </si>
-  <si>
-    <t>LCD board + components</t>
-  </si>
-  <si>
-    <t>Main board + components</t>
-  </si>
-  <si>
-    <t>Total Parts</t>
-  </si>
-  <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
-    <t>Solenoid</t>
   </si>
   <si>
     <t>56-BCPGA</t>
@@ -346,12 +177,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,7 +528,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -875,98 +705,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="278">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1248,7 +986,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1259,80 +997,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1353,58 +1027,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="278">
@@ -1976,79 +1598,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="13" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="1"/>
+    <col min="11" max="13" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.1" customHeight="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:14" ht="14" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
+      <c r="G1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+    <row r="2" spans="1:14" ht="15" thickBot="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="2">
         <v>1</v>
       </c>
@@ -2064,263 +1686,263 @@
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>104</v>
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="13">
+        <v>18</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="4">
         <v>0.92</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="4">
         <v>0.81699999999999995</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="4">
         <v>0.64500000000000002</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="4">
         <v>0.39679999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>105</v>
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="13">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4">
         <v>15.75</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="4">
         <v>14.318</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="4">
         <v>12.170299999999999</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="4">
         <v>9.5214700000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30">
+    <row r="5" spans="1:14">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="13">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="4">
         <v>0.47299999999999998</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="4">
         <v>0.378</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="4">
         <v>0.3024</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>106</v>
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" s="13">
+        <v>33</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="4">
         <v>1.26</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="4">
         <v>1.2250000000000001</v>
       </c>
-      <c r="M6" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>85</v>
+      <c r="M6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>94</v>
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="13">
+        <v>39</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="4">
         <v>1.49</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="4">
         <v>1.24</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="4">
         <v>0.94</v>
       </c>
-      <c r="N7" s="13" t="s">
-        <v>85</v>
+      <c r="N7" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>102</v>
+        <v>47</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="K8" s="13">
+        <v>45</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="4">
         <v>0.97</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="4">
         <v>0.752</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="4">
         <v>0.57379999999999998</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="4">
         <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14">
       <c r="I11"/>
       <c r="J11"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14">
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="14.1" customHeight="1">
+    <row r="16" spans="1:14" ht="14" customHeight="1">
       <c r="I16"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2337,817 +1959,6 @@
     <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B1" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49"/>
-      <c r="H1" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="49"/>
-    </row>
-    <row r="2" spans="2:12">
-      <c r="B2" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="46"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="46"/>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="e">
-        <f>T06_LockBox_Bom1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="14">
-        <f>B4*T06_LockBox_Bom1!K6</f>
-        <v>1.26</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="22">
-        <f>H4*T06_LockBox_Bom1!K16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="15" t="e">
-        <f>B5*T06_LockBox_Bom1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H5" s="10">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="23" t="e">
-        <f>H5*T06_LockBox_Bom1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="15" t="e">
-        <f>B6*T06_LockBox_Bom1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="23" t="e">
-        <f>H6*T06_LockBox_Bom1!#REF!/10</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="15" t="e">
-        <f>B7*T06_LockBox_Bom1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="10">
-        <v>2</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="23" t="e">
-        <f>H7*T06_LockBox_Bom1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B8" s="10">
-        <v>3</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="15" t="e">
-        <f>B8*T06_LockBox_Bom1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="24" t="e">
-        <f>H8*T06_LockBox_Bom1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="15">
-        <f>T06_LockBox_Bom1!K12*B9/5</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
-        <f>SUM(H4:H8)</f>
-        <v>7</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="25" t="e">
-        <f>SUM(L4:L8)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="15" t="e">
-        <f>B10*T06_LockBox_Bom1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="15" t="e">
-        <f>B11*T06_LockBox_Bom1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="52"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="15" t="e">
-        <f>B12*T06_LockBox_Bom1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B13" s="10">
-        <v>4</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="15" t="e">
-        <f>B13*T06_LockBox_Bom1!#REF!/10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="46"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="10">
-        <v>2</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="15" t="e">
-        <f>B14*T06_LockBox_Bom1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="26">
-        <f>H14*T06_LockBox_Bom1!K15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="15" t="e">
-        <f>B15*T06_LockBox_Bom1!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="10">
-        <v>1</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="27">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="11">
-        <v>150</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="15" t="e">
-        <f>B16*T06_LockBox_Bom1!#REF!/10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="28">
-        <f>H16*T06_LockBox_Bom1!K10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="11">
-        <v>33</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="15" t="e">
-        <f>B17*T06_LockBox_Bom1!#REF!/10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H17" s="20">
-        <f>SUM(H14:H16)</f>
-        <v>3</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="29">
-        <f>SUM(L14:L16)</f>
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="10">
-        <v>3</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="15">
-        <f>B18*T06_LockBox_Bom1!K3</f>
-        <v>2.7600000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B19" s="10">
-        <v>1</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="15">
-        <f>B19*T06_LockBox_Bom1!K7</f>
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="15">
-        <f>B20*T06_LockBox_Bom1!K8</f>
-        <v>0.97</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="49"/>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="10">
-        <v>1</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="15">
-        <f>B21*T06_LockBox_Bom1!K9</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="16">
-        <f>T06_LockBox_Bom1!K10*B22</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="46"/>
-    </row>
-    <row r="23" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B23" s="4">
-        <f>SUM(B4:B22)</f>
-        <v>27</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="16" t="e">
-        <f>SUM(F4:F22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="32">
-        <v>16.79</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="H24" s="10">
-        <v>1</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="K24" s="54"/>
-      <c r="L24" s="31">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="H25" s="10">
-        <v>1</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="K25" s="54"/>
-      <c r="L25" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="H26" s="10">
-        <v>1</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="K26" s="54"/>
-      <c r="L26" s="31">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="10">
-        <v>1</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="K27" s="54"/>
-      <c r="L27" s="31">
-        <f>F20</f>
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28">
-        <f>B23+H9+H17+H32</f>
-        <v>46</v>
-      </c>
-      <c r="C28" s="34" t="e">
-        <f>L32</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H28" s="10">
-        <v>1</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J28" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="K28" s="54"/>
-      <c r="L28" s="31">
-        <f>F22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="H29" s="10">
-        <v>1</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J29" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29" s="54"/>
-      <c r="L29" s="31" t="e">
-        <f>T06_LockBox_Bom1!K18+L9</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="H30" s="10">
-        <v>1</v>
-      </c>
-      <c r="I30" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="31">
-        <v>14.95</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="15.75" thickBot="1">
-      <c r="H31" s="10">
-        <v>1</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="K31" s="54"/>
-      <c r="L31" s="31" t="e">
-        <f>F23+T06_LockBox_Bom1!K17</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="15.75" thickBot="1">
-      <c r="H32" s="30">
-        <f>SUM(H23:H31)</f>
-        <v>9</v>
-      </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="33" t="e">
-        <f>SUM(L23:L31)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="J21:K22"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="C2:C3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="mBom" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>Part</t>
   </si>
@@ -172,16 +172,43 @@
   </si>
   <si>
     <t>IC BUCK SYNC 3.3V 0.6A CL-2025</t>
+  </si>
+  <si>
+    <t>CRYSTAL 16MHZ 18PF SMD</t>
+  </si>
+  <si>
+    <t>ABM7-16.000MHZ-D2Y-T</t>
+  </si>
+  <si>
+    <t>535-9840-1-ND</t>
+  </si>
+  <si>
+    <t>2-SMD</t>
+  </si>
+  <si>
+    <t>Abracom Corporation</t>
+  </si>
+  <si>
+    <t>16th MHz Crystal</t>
+  </si>
+  <si>
+    <t>ABS07L</t>
+  </si>
+  <si>
+    <t>535-12058-1-ND</t>
+  </si>
+  <si>
+    <t>ABS07L-32.768KHZ-T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -986,7 +1013,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1028,6 +1055,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="278">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1598,35 +1632,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="13" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="1"/>
+    <col min="11" max="13" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14" customHeight="1">
+    <row r="1" spans="1:14" ht="14.1" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -1660,9 +1694,9 @@
       <c r="M1" s="8"/>
       <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1">
       <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="11"/>
@@ -1685,7 +1719,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1720,7 +1754,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1754,8 +1788,8 @@
         <v>9.5214700000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:14" ht="30">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1787,7 +1821,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1822,7 +1856,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1857,7 +1891,7 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1891,17 +1925,75 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+    <row r="9" spans="1:14" ht="30">
+      <c r="B9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.66149999999999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+    <row r="10" spans="1:14" ht="30">
+      <c r="B10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.61619999999999997</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="I11"/>
@@ -1937,7 +2029,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="14" customHeight="1">
+    <row r="16" spans="1:14" ht="14.1" customHeight="1">
       <c r="I16"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="15990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14320" windowHeight="16660"/>
   </bookViews>
   <sheets>
     <sheet name="mBom" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>Part</t>
   </si>
@@ -199,16 +199,31 @@
   </si>
   <si>
     <t>ABS07L-32.768KHZ-T</t>
+  </si>
+  <si>
+    <t>Shrouded Header</t>
+  </si>
+  <si>
+    <t>CNN HEADDER 2.54mm 10POS GOLD</t>
+  </si>
+  <si>
+    <t>Sullins Connector Solutions</t>
+  </si>
+  <si>
+    <t>SBH11-PBPC-D05-ST-BK</t>
+  </si>
+  <si>
+    <t>S9169-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,6 +1049,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1061,7 +1077,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="278">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1632,79 +1647,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="13" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="1"/>
+    <col min="11" max="13" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.1" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:14" ht="14" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+    <row r="2" spans="1:14" ht="15" thickBot="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
       <c r="K2" s="2">
         <v>1</v>
       </c>
@@ -1788,7 +1803,7 @@
         <v>9.5214700000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30">
+    <row r="5" spans="1:14">
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1925,7 +1940,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30">
+    <row r="9" spans="1:14" ht="28">
       <c r="B9" s="6" t="s">
         <v>56</v>
       </c>
@@ -1960,8 +1975,8 @@
         <v>0.66149999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30">
-      <c r="B10" s="17" t="s">
+    <row r="10" spans="1:14">
+      <c r="B10" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1996,12 +2011,34 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="I11"/>
+      <c r="B11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="J11"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="K11" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.29849999999999999</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.21590000000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="I12"/>
@@ -2029,7 +2066,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="14.1" customHeight="1">
+    <row r="16" spans="1:14" ht="14" customHeight="1">
       <c r="I16"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14320" windowHeight="16660"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="22460" windowHeight="18140"/>
   </bookViews>
   <sheets>
     <sheet name="mBom" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>Part</t>
   </si>
@@ -214,6 +214,30 @@
   </si>
   <si>
     <t>S9169-ND</t>
+  </si>
+  <si>
+    <t>Schottky Diode</t>
+  </si>
+  <si>
+    <t>0603/SOD-523F</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 20V 500MA 0603</t>
+  </si>
+  <si>
+    <t>Comchip Technology</t>
+  </si>
+  <si>
+    <t>CDBU0530</t>
+  </si>
+  <si>
+    <t>641-1285-1-ND</t>
+  </si>
+  <si>
+    <t>20V</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1650,16 +1674,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -2040,15 +2064,43 @@
         <v>0.21590000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="I12"/>
+    <row r="12" spans="1:14" ht="14" customHeight="1">
+      <c r="B12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" t="s">
+        <v>70</v>
+      </c>
       <c r="J12"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="K12" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.216</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="14" customHeight="1">
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -2061,6 +2113,9 @@
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14">
+      <c r="F15" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
   <si>
     <t>Part</t>
   </si>
@@ -170,7 +170,7 @@
     <t>CP-047A-ND</t>
   </si>
   <si>
-    <t>16th MHz Crystal</t>
+    <t>ABM7</t>
   </si>
   <si>
     <t>2-SMD</t>
@@ -327,16 +327,38 @@
   </si>
   <si>
     <t>490-6477-1-ND</t>
+  </si>
+  <si>
+    <t>8.06k Resistor</t>
+  </si>
+  <si>
+    <t>8.06k</t>
+  </si>
+  <si>
+    <t>0.1W</t>
+  </si>
+  <si>
+    <t>RES SMD 8.06K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>Panasonic electronic Components</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF8061V</t>
+  </si>
+  <si>
+    <t>P8.06KHCT-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -454,7 +476,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -525,6 +547,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -544,10 +570,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -562,8 +588,8 @@
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.6599190283401"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.8380566801619"/>
     <col collapsed="false" hidden="true" max="10" min="10" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="6.49797570850202"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="5.49797570850202"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="7.48987854251012"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="8.62753036437247"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="8.83400809716599"/>
   </cols>
   <sheetData>
@@ -1150,17 +1176,55 @@
       <c r="I17" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="K17" s="18" t="n">
         <v>0.32</v>
       </c>
-      <c r="L17" s="1" t="n">
+      <c r="L17" s="18" t="n">
         <v>0.28</v>
       </c>
-      <c r="M17" s="1" t="n">
+      <c r="M17" s="18" t="n">
         <v>0.14</v>
       </c>
-      <c r="N17" s="1" t="n">
+      <c r="N17" s="18" t="n">
         <v>0.092</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="18" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="N18" s="18" t="n">
+        <v>0.00416</v>
       </c>
     </row>
   </sheetData>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7180" yWindow="22220" windowWidth="26260" windowHeight="15280" tabRatio="480"/>
+    <workbookView xWindow="7220" yWindow="18180" windowWidth="25600" windowHeight="16060" tabRatio="480"/>
   </bookViews>
   <sheets>
     <sheet name="mBom" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
   <si>
     <t>Part</t>
   </si>
@@ -357,9 +357,6 @@
     <t>ABS25-32.768KHZ-6-T</t>
   </si>
   <si>
-    <t>35-10240-1-ND</t>
-  </si>
-  <si>
     <t>11uF Capacitor</t>
   </si>
   <si>
@@ -379,6 +376,21 @@
   </si>
   <si>
     <t>490-6072-1-ND</t>
+  </si>
+  <si>
+    <t>535-10240-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BOX HEADER, 0.050 10 POS</t>
+  </si>
+  <si>
+    <t>CNC Tech</t>
+  </si>
+  <si>
+    <t>3220-10-0100-00</t>
+  </si>
+  <si>
+    <t>1175-1627-ND</t>
   </si>
 </sst>
 </file>
@@ -490,21 +502,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,6 +525,21 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,708 +872,737 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="11"/>
-    <col min="4" max="5" width="8.83203125" style="6"/>
-    <col min="6" max="6" width="34.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="6"/>
+    <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="6"/>
+    <col min="4" max="5" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="5"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="7">
+      <c r="A2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="2">
         <v>10</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="2">
         <v>100</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="7">
         <v>0.92</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="7">
         <v>0.81699999999999995</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="7">
         <v>0.64500000000000002</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="7">
         <v>0.39679999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="7">
         <v>15.75</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="7">
         <v>14.318</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="7">
         <v>12.170299999999999</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="7">
         <v>9.5214700000000008</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="7">
         <v>0.47299999999999998</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="7">
         <v>0.378</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="7">
         <v>0.3024</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="7">
         <v>1.26</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="7">
         <v>1.2250000000000001</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="7">
         <v>1.49</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="7">
         <v>1.24</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="7">
         <v>0.94</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="7">
         <v>0.97</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="7">
         <v>0.752</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="7">
         <v>0.57379999999999998</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="7">
         <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="4">
         <v>0.96</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="4">
         <v>0.84699999999999998</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="4">
         <v>0.7</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="4">
         <v>0.66149999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.29849999999999999</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0.21590000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14" customHeight="1">
+      <c r="B12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.216</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14" customHeight="1">
+      <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L14" s="7">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.115</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0.31630000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14" customHeight="1">
+      <c r="B16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="M16" s="7">
+        <v>6.93E-2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4.2079999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N17" s="8">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="8">
+        <v>1.14E-2</v>
+      </c>
+      <c r="N18" s="8">
+        <v>4.1599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K10" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="L10" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="12">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="N10" s="12">
-        <v>0.31900000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="6" t="s">
+      <c r="C19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M19" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="N19" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0.64</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0.29849999999999999</v>
-      </c>
-      <c r="N11" s="12">
-        <v>0.21590000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="14" customHeight="1">
-      <c r="B12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="L12" s="12">
-        <v>0.31</v>
-      </c>
-      <c r="M12" s="12">
-        <v>0.216</v>
-      </c>
-      <c r="N12" s="12">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="14" customHeight="1">
-      <c r="B13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="L13" s="12">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M13" s="12">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="N13" s="12">
-        <v>6.3E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="L14" s="12">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="M14" s="12">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="N14" s="12">
-        <v>1.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0.17</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0.115</v>
-      </c>
-      <c r="M15" s="12">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="N15" s="12">
-        <v>0.31630000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="14" customHeight="1">
-      <c r="B16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="L16" s="12">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="M16" s="12">
-        <v>6.93E-2</v>
-      </c>
-      <c r="N16" s="12">
-        <v>4.2079999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K17" s="13">
-        <v>0.32</v>
-      </c>
-      <c r="L17" s="13">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="M17" s="13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N17" s="13">
-        <v>9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K18" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" s="13">
-        <v>1.14E-2</v>
-      </c>
-      <c r="N18" s="13">
-        <v>4.1599999999999996E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="L19" s="6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M19" s="6">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="N19" s="6">
-        <v>3.6999999999999998E-2</v>
+      <c r="F20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="18180" windowWidth="25600" windowHeight="16060" tabRatio="480"/>
+    <workbookView xWindow="4180" yWindow="1480" windowWidth="30760" windowHeight="17000" tabRatio="480"/>
   </bookViews>
   <sheets>
     <sheet name="mBom" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="126">
   <si>
     <t>Part</t>
   </si>
@@ -192,21 +192,6 @@
     <t>535-9840-1-ND</t>
   </si>
   <si>
-    <t>Shrouded Header</t>
-  </si>
-  <si>
-    <t>CNN HEADDER 2.54mm 10POS GOLD</t>
-  </si>
-  <si>
-    <t>Sullins Connector Solutions</t>
-  </si>
-  <si>
-    <t>SBH11-PBPC-D05-ST-BK</t>
-  </si>
-  <si>
-    <t>S9169-ND</t>
-  </si>
-  <si>
     <t>Schottky Diode</t>
   </si>
   <si>
@@ -391,6 +376,27 @@
   </si>
   <si>
     <t>1175-1627-ND</t>
+  </si>
+  <si>
+    <t>SWD Header</t>
+  </si>
+  <si>
+    <t>Push Button</t>
+  </si>
+  <si>
+    <t>SWITCH TACTILE SPST-NO 0.05A 12V</t>
+  </si>
+  <si>
+    <t>C&amp;K Components</t>
+  </si>
+  <si>
+    <t>PTS645SM43SMTR92 LFS</t>
+  </si>
+  <si>
+    <t>CKN9112CT-ND</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -526,19 +532,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -874,15 +880,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="6"/>
+    <col min="3" max="3" width="13.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.83203125" style="1"/>
     <col min="6" max="6" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -893,19 +899,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -914,33 +920,33 @@
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="12"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="13"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
       <c r="K2" s="2">
         <v>1</v>
       </c>
@@ -1198,25 +1204,25 @@
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K10" s="7">
         <v>0.6</v>
@@ -1231,316 +1237,316 @@
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="14" customHeight="1">
       <c r="B11" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="K11" s="7">
-        <v>0.64</v>
+        <v>0.4</v>
       </c>
       <c r="L11" s="7">
-        <v>0.44500000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="M11" s="7">
-        <v>0.29849999999999999</v>
+        <v>0.216</v>
       </c>
       <c r="N11" s="7">
-        <v>0.21590000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14" customHeight="1">
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0.216</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="14" customHeight="1">
-      <c r="B13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>73</v>
+      <c r="F13" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7">
         <v>0.1</v>
       </c>
       <c r="L13" s="7">
-        <v>2.5000000000000001E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="M13" s="7">
-        <v>1.1599999999999999E-2</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="N13" s="7">
-        <v>6.3E-3</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="L14" s="7">
-        <v>4.1000000000000002E-2</v>
+        <v>0.115</v>
       </c>
       <c r="M14" s="7">
-        <v>1.8700000000000001E-2</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="N14" s="7">
-        <v>1.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.31630000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14" customHeight="1">
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="M15" s="7">
+        <v>6.93E-2</v>
+      </c>
+      <c r="N15" s="7">
+        <v>4.2079999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="L15" s="7">
-        <v>0.115</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0.31630000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="14" customHeight="1">
-      <c r="B16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>92</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="M16" s="7">
-        <v>6.93E-2</v>
-      </c>
-      <c r="N16" s="7">
-        <v>4.2079999999999999E-2</v>
+        <v>95</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N16" s="8">
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K17" s="8">
-        <v>0.32</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0.28000000000000003</v>
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="M17" s="8">
-        <v>0.14000000000000001</v>
+        <v>1.14E-2</v>
       </c>
       <c r="N17" s="8">
-        <v>9.1999999999999998E-2</v>
+        <v>4.1599999999999996E-3</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" s="8">
-        <v>1.14E-2</v>
-      </c>
-      <c r="N18" s="8">
-        <v>4.1599999999999996E-3</v>
+        <v>93</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M18" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>117</v>
@@ -1549,60 +1555,60 @@
         <v>118</v>
       </c>
       <c r="K19" s="1">
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
       <c r="L19" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="M19" s="1">
-        <v>6.6000000000000003E-2</v>
+        <v>0.35</v>
       </c>
       <c r="N19" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K20" s="1">
-        <v>0.48</v>
+        <v>0.21</v>
       </c>
       <c r="L20" s="1">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="M20" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0.25</v>
+        <v>0.18</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1480" windowWidth="30760" windowHeight="17000" tabRatio="480"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="16500" windowHeight="15580" tabRatio="480"/>
   </bookViews>
   <sheets>
     <sheet name="mBom" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="133">
   <si>
     <t>Part</t>
   </si>
@@ -397,6 +397,27 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Super Cap</t>
+  </si>
+  <si>
+    <t>220mF</t>
+  </si>
+  <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>CAP 220MF -20% +80% 3.3V SMD</t>
+  </si>
+  <si>
+    <t>Elna America</t>
+  </si>
+  <si>
+    <t>DCK-3R3E224U-E</t>
+  </si>
+  <si>
+    <t>604-1007-ND</t>
   </si>
 </sst>
 </file>
@@ -407,7 +428,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -427,6 +448,22 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -503,8 +540,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -532,23 +571,25 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -878,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -899,19 +940,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -920,33 +961,33 @@
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="9"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="12"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="2">
         <v>1</v>
       </c>
@@ -1596,21 +1637,57 @@
         <v>125</v>
       </c>
     </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.52</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="16500" windowHeight="15580" tabRatio="480"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="12500" windowHeight="17380" tabRatio="480"/>
   </bookViews>
   <sheets>
     <sheet name="mBom" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="139">
   <si>
     <t>Part</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Digikey Part Number</t>
   </si>
   <si>
-    <t>ADAFRUIT</t>
-  </si>
-  <si>
     <t>Quantity/Extended Price</t>
   </si>
   <si>
@@ -418,15 +415,35 @@
   </si>
   <si>
     <t>604-1007-ND</t>
+  </si>
+  <si>
+    <t>RGB LED</t>
+  </si>
+  <si>
+    <t>0605</t>
+  </si>
+  <si>
+    <t>Standard LEDs - SMD Red/Blue/Green</t>
+  </si>
+  <si>
+    <t>Kingbright</t>
+  </si>
+  <si>
+    <t>APHFT1612PBASURKVGAC</t>
+  </si>
+  <si>
+    <t>Mouser P#</t>
+  </si>
+  <si>
+    <t>604-T1612PBASURKVGAC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -540,8 +557,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -565,31 +584,33 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -919,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -935,59 +956,60 @@
     <col min="7" max="7" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="8.83203125" style="12"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="12"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
       <c r="K2" s="2">
         <v>1</v>
       </c>
@@ -1003,688 +1025,720 @@
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="K3" s="12">
         <v>0.92</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="12">
         <v>0.81699999999999995</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="12">
         <v>0.64500000000000002</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="12">
         <v>0.39679999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="K4" s="12">
         <v>15.75</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="12">
         <v>14.318</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="12">
         <v>12.170299999999999</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="12">
         <v>9.5214700000000008</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="K5" s="12">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="12">
         <v>0.47299999999999998</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="12">
         <v>0.378</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="12">
         <v>0.3024</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="K6" s="12">
         <v>1.26</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="12">
         <v>1.2250000000000001</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>26</v>
+      <c r="M6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="K7" s="12">
         <v>1.49</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="12">
         <v>1.24</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="12">
         <v>0.94</v>
       </c>
-      <c r="N7" s="7" t="s">
-        <v>26</v>
+      <c r="N7" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="K8" s="12">
         <v>0.97</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="12">
         <v>0.752</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="12">
         <v>0.57379999999999998</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="12">
         <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="K9" s="13">
         <v>0.96</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="13">
         <v>0.84699999999999998</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="13">
         <v>0.7</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="13">
         <v>0.66149999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" s="7">
+        <v>113</v>
+      </c>
+      <c r="K10" s="12">
         <v>0.6</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="12">
         <v>0.5</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="12">
         <v>0.39900000000000002</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="12">
         <v>0.31900000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14" customHeight="1">
       <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="K11" s="12">
         <v>0.4</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="12">
         <v>0.31</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="12">
         <v>0.216</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="12">
         <v>0.11</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14" customHeight="1">
       <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="K12" s="12">
         <v>0.1</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="12">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="12">
         <v>6.3E-3</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="K13" s="12">
         <v>0.1</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="12">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="12">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="12">
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="7">
+      <c r="K14" s="12">
         <v>0.17</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="12">
         <v>0.115</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="12">
         <v>0.54600000000000004</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="12">
         <v>0.31630000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14" customHeight="1">
       <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="7">
+      <c r="K15" s="12">
         <v>0.2</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="12">
         <v>0.13600000000000001</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="12">
         <v>6.93E-2</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="12">
         <v>4.2079999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" s="8">
+      <c r="K16" s="12">
         <v>0.32</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="12">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="12">
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K17" s="8">
+      <c r="K17" s="12">
         <v>0.1</v>
       </c>
-      <c r="L17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="8">
+      <c r="L17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="12">
         <v>1.14E-2</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="12">
         <v>4.1599999999999996E-3</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="K18" s="12">
         <v>0.2</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="12">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="12">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="12">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K19" s="1">
+      <c r="K19" s="12">
         <v>0.48</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="12">
         <v>0.45</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="12">
         <v>0.35</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="12">
         <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="K20" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="N20" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="K21" s="12">
+        <v>1.41</v>
+      </c>
+      <c r="L21" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K21" s="1">
-        <v>1.41</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0.52</v>
+      <c r="C22" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="12">
+        <v>1.79</v>
+      </c>
+      <c r="L22" s="12">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M22" s="12">
+        <v>1.03</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0.67700000000000005</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="480" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1320" yWindow="23820" windowWidth="25660" windowHeight="14620" tabRatio="480"/>
   </bookViews>
   <sheets>
-    <sheet name="mBom" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="mBom" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="160">
   <si>
     <t>Part</t>
   </si>
@@ -191,7 +195,7 @@
     <t>ABS25</t>
   </si>
   <si>
-    <t>4-SOJ </t>
+    <t>4-SOJ</t>
   </si>
   <si>
     <t>CRYSTAL 32.768KHZ 6PF SMD</t>
@@ -365,7 +369,7 @@
     <t>SWD Header</t>
   </si>
   <si>
-    <t> BOX HEADER, 0.050 10 POS</t>
+    <t>BOX HEADER, 0.050 10 POS</t>
   </si>
   <si>
     <t>CNC Tech</t>
@@ -465,41 +469,47 @@
   </si>
   <si>
     <t>490-10148-1-ND</t>
+  </si>
+  <si>
+    <t>5.1 ohm resistor</t>
+  </si>
+  <si>
+    <t>.1W</t>
+  </si>
+  <si>
+    <t>RES SMD 5.1 OHM 5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>Vishay Dale</t>
+  </si>
+  <si>
+    <t>CRCW06035R10JNEA</t>
+  </si>
+  <si>
+    <t>541-5.1GCT-ND</t>
+  </si>
+  <si>
+    <t>68 ohm resistor</t>
+  </si>
+  <si>
+    <t>RES SMD 68 OHM 5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RC1608J680CS</t>
+  </si>
+  <si>
+    <t>1276-5034-1-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="\$#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -521,373 +531,657 @@
     </fill>
   </fills>
   <borders count="6">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.49797570850202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.331983805668"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.17004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="8.83400809716599"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="31.834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.8380566801619"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.0040485829959"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.502024291498"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="3" width="8.83400809716599"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="8.83400809716599"/>
+    <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-    </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="9" t="n">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="12">
         <v>1</v>
       </c>
-      <c r="L2" s="9" t="n">
+      <c r="L2" s="12">
         <v>10</v>
       </c>
-      <c r="M2" s="9" t="n">
+      <c r="M2" s="12">
         <v>100</v>
       </c>
-      <c r="N2" s="10" t="n">
+      <c r="N2" s="13">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:14">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0"/>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="3">
         <v>0.92</v>
       </c>
-      <c r="L3" s="3" t="n">
-        <v>0.817</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>0.645</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>0.3968</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="3">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.39679999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="0"/>
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="3">
         <v>15.75</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="3">
         <v>14.318</v>
       </c>
-      <c r="M4" s="3" t="n">
-        <v>12.1703</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>9.52147</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="3">
+        <v>12.170299999999999</v>
+      </c>
+      <c r="N4" s="3">
+        <v>9.5214700000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="0"/>
       <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="0"/>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="3" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="M5" s="3" t="n">
+      <c r="K5" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="M5" s="3">
         <v>0.378</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="N5" s="3">
         <v>0.3024</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:14">
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="3">
         <v>1.26</v>
       </c>
-      <c r="L6" s="3" t="n">
-        <v>1.225</v>
+      <c r="L6" s="3">
+        <v>1.2250000000000001</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>26</v>
@@ -896,158 +1190,153 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:14">
       <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="0"/>
       <c r="E7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="3">
         <v>1.49</v>
       </c>
-      <c r="L7" s="3" t="n">
+      <c r="L7" s="3">
         <v>1.24</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="M7" s="3">
         <v>0.94</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:14">
       <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="0"/>
       <c r="E8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="3">
         <v>0.97</v>
       </c>
-      <c r="L8" s="3" t="n">
+      <c r="L8" s="3">
         <v>0.752</v>
       </c>
-      <c r="M8" s="3" t="n">
-        <v>0.5738</v>
-      </c>
-      <c r="N8" s="3" t="n">
-        <v>0.408</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="3">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="0"/>
       <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="13" t="n">
+      <c r="K9" s="6">
         <v>0.96</v>
       </c>
-      <c r="L9" s="13" t="n">
-        <v>0.847</v>
-      </c>
-      <c r="M9" s="13" t="n">
+      <c r="L9" s="6">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M9" s="6">
         <v>0.7</v>
       </c>
-      <c r="N9" s="13" t="n">
-        <v>0.6615</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N9" s="6">
+        <v>0.66149999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="0"/>
       <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="3">
         <v>0.6</v>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="L10" s="3">
         <v>0.5</v>
       </c>
-      <c r="M10" s="3" t="n">
-        <v>0.399</v>
-      </c>
-      <c r="N10" s="3" t="n">
-        <v>0.319</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M10" s="3">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="B11" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="0"/>
       <c r="E11" s="1" t="s">
         <v>64</v>
       </c>
@@ -1063,20 +1352,20 @@
       <c r="I11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="K11" s="3">
         <v>0.4</v>
       </c>
-      <c r="L11" s="3" t="n">
+      <c r="L11" s="3">
         <v>0.31</v>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="M11" s="3">
         <v>0.216</v>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="N11" s="3">
         <v>0.11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:14">
       <c r="B12" s="1" t="s">
         <v>69</v>
       </c>
@@ -1089,32 +1378,32 @@
       <c r="E12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="5" t="s">
         <v>73</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="K12" s="3">
         <v>0.1</v>
       </c>
-      <c r="L12" s="3" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="M12" s="3" t="n">
-        <v>0.0116</v>
-      </c>
-      <c r="N12" s="3" t="n">
-        <v>0.0063</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="B13" s="1" t="s">
         <v>77</v>
       </c>
@@ -1133,26 +1422,26 @@
       <c r="G13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="3" t="n">
+      <c r="K13" s="3">
         <v>0.1</v>
       </c>
-      <c r="L13" s="3" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v>0.0187</v>
-      </c>
-      <c r="N13" s="3" t="n">
-        <v>0.0102</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" s="1" t="s">
         <v>83</v>
       </c>
@@ -1165,32 +1454,32 @@
       <c r="E14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="3" t="n">
+      <c r="K14" s="3">
         <v>0.17</v>
       </c>
-      <c r="L14" s="3" t="n">
+      <c r="L14" s="3">
         <v>0.115</v>
       </c>
-      <c r="M14" s="3" t="n">
-        <v>0.546</v>
-      </c>
-      <c r="N14" s="3" t="n">
-        <v>0.3163</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M14" s="3">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.31630000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="B15" s="1" t="s">
         <v>89</v>
       </c>
@@ -1203,32 +1492,32 @@
       <c r="E15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="5" t="s">
         <v>92</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="3" t="n">
+      <c r="K15" s="3">
         <v>0.2</v>
       </c>
-      <c r="L15" s="3" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="M15" s="3" t="n">
-        <v>0.0693</v>
-      </c>
-      <c r="N15" s="3" t="n">
-        <v>0.04208</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="3">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="M15" s="3">
+        <v>6.93E-2</v>
+      </c>
+      <c r="N15" s="3">
+        <v>4.2079999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="B16" s="1" t="s">
         <v>95</v>
       </c>
@@ -1241,32 +1530,32 @@
       <c r="E16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="5" t="s">
         <v>97</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="3" t="n">
+      <c r="K16" s="3">
         <v>0.32</v>
       </c>
-      <c r="L16" s="3" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="M16" s="3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N16" s="3" t="n">
-        <v>0.092</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L16" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N16" s="3">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
       <c r="B17" s="1" t="s">
         <v>101</v>
       </c>
@@ -1279,32 +1568,32 @@
       <c r="E17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="5" t="s">
         <v>104</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="3" t="n">
+      <c r="K17" s="3">
         <v>0.1</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="3" t="n">
-        <v>0.0114</v>
-      </c>
-      <c r="N17" s="3" t="n">
-        <v>0.00416</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M17" s="3">
+        <v>1.14E-2</v>
+      </c>
+      <c r="N17" s="3">
+        <v>4.1599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18" s="1" t="s">
         <v>108</v>
       </c>
@@ -1329,26 +1618,24 @@
       <c r="I18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K18" s="3" t="n">
+      <c r="K18" s="3">
         <v>0.2</v>
       </c>
-      <c r="L18" s="3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M18" s="3" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="N18" s="3" t="n">
-        <v>0.037</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L18" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M18" s="3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="N18" s="3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
+      <c r="C19" s="1"/>
       <c r="F19" s="1" t="s">
         <v>116</v>
       </c>
@@ -1361,26 +1648,24 @@
       <c r="I19" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K19" s="3" t="n">
+      <c r="K19" s="3">
         <v>0.48</v>
       </c>
-      <c r="L19" s="3" t="n">
+      <c r="L19" s="3">
         <v>0.45</v>
       </c>
-      <c r="M19" s="3" t="n">
+      <c r="M19" s="3">
         <v>0.35</v>
       </c>
-      <c r="N19" s="3" t="n">
+      <c r="N19" s="3">
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:14">
       <c r="B20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
+      <c r="C20" s="1"/>
       <c r="F20" s="1" t="s">
         <v>121</v>
       </c>
@@ -1393,24 +1678,24 @@
       <c r="I20" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K20" s="3" t="n">
+      <c r="K20" s="3">
         <v>0.21</v>
       </c>
-      <c r="L20" s="3" t="n">
+      <c r="L20" s="3">
         <v>0.2</v>
       </c>
-      <c r="M20" s="3" t="n">
+      <c r="M20" s="3">
         <v>0.18</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:14">
       <c r="B21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="0"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>127</v>
       </c>
@@ -1429,20 +1714,20 @@
       <c r="I21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K21" s="3" t="n">
+      <c r="K21" s="3">
         <v>1.41</v>
       </c>
-      <c r="L21" s="3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M21" s="3" t="n">
+      <c r="L21" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M21" s="3">
         <v>0.83</v>
       </c>
-      <c r="N21" s="3" t="n">
+      <c r="N21" s="3">
         <v>0.52</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:14">
       <c r="B22" s="1" t="s">
         <v>133</v>
       </c>
@@ -1461,52 +1746,52 @@
       <c r="J22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K22" s="3" t="n">
+      <c r="K22" s="3">
         <v>1.79</v>
       </c>
-      <c r="L22" s="3" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="M22" s="3" t="n">
+      <c r="L22" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M22" s="3">
         <v>1.03</v>
       </c>
-      <c r="N22" s="3" t="n">
-        <v>0.677</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N22" s="3">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
       <c r="B23" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="5" t="s">
         <v>141</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="3" t="n">
+      <c r="K23" s="3">
         <v>0.95</v>
       </c>
-      <c r="L23" s="3" t="n">
-        <v>0.839</v>
-      </c>
-      <c r="M23" s="3" t="n">
-        <v>0.6934</v>
-      </c>
-      <c r="N23" s="3" t="n">
-        <v>0.54775</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L23" s="3">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.69340000000000002</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.54774999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
       <c r="B24" s="1" t="s">
         <v>144</v>
       </c>
@@ -1519,51 +1804,126 @@
       <c r="E24" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K24" s="3" t="n">
+      <c r="K24" s="3">
         <v>0.1</v>
       </c>
-      <c r="L24" s="3" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="M24" s="3" t="n">
-        <v>0.0281</v>
-      </c>
-      <c r="N24" s="3" t="n">
-        <v>0.0153</v>
+      <c r="L24" s="3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="M24" s="3">
+        <v>2.81E-2</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="1">
+        <v>68</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:N1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="23820" windowWidth="25660" windowHeight="14620" tabRatio="480"/>
+    <workbookView xWindow="5320" yWindow="3640" windowWidth="25660" windowHeight="14620" tabRatio="480"/>
   </bookViews>
   <sheets>
     <sheet name="mBom" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="169">
   <si>
     <t>Part</t>
   </si>
@@ -499,6 +499,33 @@
   </si>
   <si>
     <t>1276-5034-1-ND</t>
+  </si>
+  <si>
+    <t>Male header</t>
+  </si>
+  <si>
+    <t>CONN HEADER R/A DUAL 4POS GOLD</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>961204-5604-AR</t>
+  </si>
+  <si>
+    <t>3M9478-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER .100" DUAL R/A 10POS</t>
+  </si>
+  <si>
+    <t>Sullins Connector Solutions</t>
+  </si>
+  <si>
+    <t>PRPC005DBAN-M71RC</t>
+  </si>
+  <si>
+    <t>S2111EC-05-ND</t>
   </si>
 </sst>
 </file>
@@ -617,26 +644,26 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -992,64 +1019,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="12">
+      <c r="A2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="7">
         <v>1</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="7">
         <v>10</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="7">
         <v>100</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="8">
         <v>1000</v>
       </c>
     </row>
@@ -1905,19 +1932,77 @@
         <v>0.01</v>
       </c>
     </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.39</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="172">
   <si>
     <t>Part</t>
   </si>
@@ -516,16 +516,25 @@
     <t>3M9478-ND</t>
   </si>
   <si>
-    <t>CONN HEADER .100" DUAL R/A 10POS</t>
-  </si>
-  <si>
     <t>Sullins Connector Solutions</t>
   </si>
   <si>
-    <t>PRPC005DBAN-M71RC</t>
-  </si>
-  <si>
-    <t>S2111EC-05-ND</t>
+    <t>CONN HEADER DUAL 8 POS RA 2.54</t>
+  </si>
+  <si>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>732-5353-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER .100" DUAL R/A 20POS</t>
+  </si>
+  <si>
+    <t>PRPC010DBAN-M71RC</t>
+  </si>
+  <si>
+    <t>S2111EC-10-ND</t>
   </si>
 </sst>
 </file>
@@ -650,19 +659,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1019,19 +1028,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -1040,33 +1049,33 @@
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="12"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="13"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
       <c r="K2" s="7">
         <v>1</v>
       </c>
@@ -1966,43 +1975,72 @@
         <v>160</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H28" s="1" t="s">
         <v>167</v>
+      </c>
+      <c r="H28" s="1">
+        <v>61300821021</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>168</v>
       </c>
       <c r="K28" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="L28" s="3">
         <v>0.7</v>
       </c>
+      <c r="L28" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="M28" s="3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0.39</v>
+        <v>0.63</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="3640" windowWidth="25660" windowHeight="14620" tabRatio="480"/>
+    <workbookView xWindow="820" yWindow="23080" windowWidth="25660" windowHeight="14620" tabRatio="480"/>
   </bookViews>
   <sheets>
     <sheet name="mBom" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="178">
   <si>
     <t>Part</t>
   </si>
@@ -535,6 +535,24 @@
   </si>
   <si>
     <t>S2111EC-10-ND</t>
+  </si>
+  <si>
+    <t>AAT3221</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>IC REG LDO 1.8V 0.15A SOT23-5</t>
+  </si>
+  <si>
+    <t>Skyworks Solutions Inc</t>
+  </si>
+  <si>
+    <t>AAT3221IGV-1.8-T1</t>
+  </si>
+  <si>
+    <t>863-1508-1-ND</t>
   </si>
 </sst>
 </file>
@@ -659,19 +677,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1028,19 +1046,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -1049,33 +1067,33 @@
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="9"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="12"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="7">
         <v>1</v>
       </c>
@@ -2028,19 +2046,51 @@
         <v>0.54</v>
       </c>
     </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="175">
   <si>
     <t>Part</t>
   </si>
@@ -174,24 +174,9 @@
     <t>CP-047A-ND</t>
   </si>
   <si>
-    <t>ABM7</t>
-  </si>
-  <si>
-    <t>2-SMD</t>
-  </si>
-  <si>
-    <t>CRYSTAL 16MHZ 18PF SMD</t>
-  </si>
-  <si>
     <t>Abracom Corporation</t>
   </si>
   <si>
-    <t>ABM7-16.000MHZ-D2Y-T</t>
-  </si>
-  <si>
-    <t>535-9840-1-ND</t>
-  </si>
-  <si>
     <t>ABS25</t>
   </si>
   <si>
@@ -553,6 +538,12 @@
   </si>
   <si>
     <t>863-1508-1-ND</t>
+  </si>
+  <si>
+    <t>NX3225</t>
+  </si>
+  <si>
+    <t>4-SMD</t>
   </si>
 </sst>
 </file>
@@ -677,19 +668,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1046,19 +1037,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -1067,33 +1058,33 @@
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="12"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="13"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
       <c r="K2" s="7">
         <v>1</v>
       </c>
@@ -1316,60 +1307,60 @@
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K9" s="6">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="L9" s="6">
-        <v>0.84699999999999998</v>
+        <v>0.84</v>
       </c>
       <c r="M9" s="6">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="N9" s="6">
-        <v>0.66149999999999998</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K10" s="3">
         <v>0.6</v>
@@ -1386,25 +1377,25 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="K11" s="3">
         <v>0.4</v>
@@ -1421,28 +1412,28 @@
     </row>
     <row r="12" spans="1:14">
       <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="H12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="I12" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="K12" s="3">
         <v>0.1</v>
@@ -1459,28 +1450,28 @@
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="K13" s="3">
         <v>0.1</v>
@@ -1497,28 +1488,28 @@
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="K14" s="3">
         <v>0.17</v>
@@ -1535,28 +1526,28 @@
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="K15" s="3">
         <v>0.2</v>
@@ -1573,28 +1564,28 @@
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="K16" s="3">
         <v>0.32</v>
@@ -1611,28 +1602,28 @@
     </row>
     <row r="17" spans="2:14">
       <c r="B17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="I17" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="K17" s="3">
         <v>0.1</v>
@@ -1649,28 +1640,28 @@
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="K18" s="3">
         <v>0.2</v>
@@ -1687,20 +1678,20 @@
     </row>
     <row r="19" spans="2:14">
       <c r="B19" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K19" s="3">
         <v>0.48</v>
@@ -1717,20 +1708,20 @@
     </row>
     <row r="20" spans="2:14">
       <c r="B20" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K20" s="3">
         <v>0.21</v>
@@ -1742,31 +1733,31 @@
         <v>0.18</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="K21" s="3">
         <v>1.41</v>
@@ -1783,22 +1774,22 @@
     </row>
     <row r="22" spans="2:14">
       <c r="B22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="K22" s="3">
         <v>1.79</v>
@@ -1815,19 +1806,19 @@
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>33</v>
@@ -1847,28 +1838,28 @@
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="K24" s="3">
         <v>0.1</v>
@@ -1885,28 +1876,28 @@
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1">
         <v>5.0999999999999996</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K25" s="3">
         <v>7.0000000000000007E-2</v>
@@ -1923,28 +1914,28 @@
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1">
         <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K26" s="3">
         <v>0.1</v>
@@ -1961,19 +1952,19 @@
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K27" s="3">
         <v>0.33</v>
@@ -1990,19 +1981,19 @@
     </row>
     <row r="28" spans="2:14">
       <c r="B28" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H28" s="1">
         <v>61300821021</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K28" s="3">
         <v>0.7</v>
@@ -2019,19 +2010,19 @@
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K29" s="3">
         <v>1.08</v>
@@ -2048,22 +2039,22 @@
     </row>
     <row r="30" spans="2:14">
       <c r="B30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="K30" s="3">
         <v>0.17</v>
@@ -2080,17 +2071,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="180">
   <si>
     <t>Part</t>
   </si>
@@ -544,6 +544,21 @@
   </si>
   <si>
     <t>4-SMD</t>
+  </si>
+  <si>
+    <t>MCP4922</t>
+  </si>
+  <si>
+    <t>14SOIC</t>
+  </si>
+  <si>
+    <t>IC DAC 12BIT DUAL W/SPI 14SOIC</t>
+  </si>
+  <si>
+    <t>MCP4922T-E/SL</t>
+  </si>
+  <si>
+    <t>MCP4922T-E/SLCT-ND</t>
   </si>
 </sst>
 </file>
@@ -668,19 +683,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1014,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1037,19 +1052,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -1058,33 +1073,33 @@
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="9"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="12"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="7">
         <v>1</v>
       </c>
@@ -2069,19 +2084,51 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K31" s="3">
+        <v>3.14</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2.62</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="208">
   <si>
     <t>Part</t>
   </si>
@@ -573,6 +573,72 @@
   </si>
   <si>
     <t>475-2512-1-ND </t>
+  </si>
+  <si>
+    <t>100 Ohm Resistor</t>
+  </si>
+  <si>
+    <t>meh </t>
+  </si>
+  <si>
+    <t>RES SMD 100 OHM 1% 1/8W 0603 </t>
+  </si>
+  <si>
+    <t>Vishay Beyschlag</t>
+  </si>
+  <si>
+    <t>MCT06030C1000FP500</t>
+  </si>
+  <si>
+    <t>MCT0603-100-CFCT-ND</t>
+  </si>
+  <si>
+    <t>649 Ohm Resistor</t>
+  </si>
+  <si>
+    <t>RES SMD 649 OHM 1% 1/10W 0603 </t>
+  </si>
+  <si>
+    <t>Stackpole Electronics Incx</t>
+  </si>
+  <si>
+    <t>RMCF0603FT649R</t>
+  </si>
+  <si>
+    <t>RMCF0603FT649RCT-ND </t>
+  </si>
+  <si>
+    <t>59k Ohm Resistor</t>
+  </si>
+  <si>
+    <t>59k</t>
+  </si>
+  <si>
+    <t>RES SMD 59K OHM 1% 1/10W 0603 </t>
+  </si>
+  <si>
+    <t>ERJ-3EKF5902V</t>
+  </si>
+  <si>
+    <t>P59.0KHCT-ND </t>
+  </si>
+  <si>
+    <t>10pF Capacitor</t>
+  </si>
+  <si>
+    <t>10pf</t>
+  </si>
+  <si>
+    <t>CAP CER 10PF 50V C0G 0402 </t>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+  </si>
+  <si>
+    <t>C1005C0G1H100C050BA</t>
+  </si>
+  <si>
+    <t>445-4896-1-ND </t>
   </si>
 </sst>
 </file>
@@ -782,10 +848,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N37" activeCellId="0" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1907,7 +1973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="14" t="s">
         <v>180</v>
       </c>
@@ -1944,6 +2010,152 @@
       <c r="N32" s="3" t="n">
         <f aca="false">-C320603</f>
         <v>-0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="M33" s="3" t="n">
+        <v>0.0408</v>
+      </c>
+      <c r="N33" s="3" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L34" s="3" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M34" s="3" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="N34" s="3" t="n">
+        <v>0.00384</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L35" s="3" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="M35" s="3" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="N35" s="3" t="n">
+        <v>0.00416</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L36" s="3" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="M36" s="3" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="N36" s="3" t="n">
+        <v>0.0063</v>
       </c>
     </row>
   </sheetData>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="25040" windowWidth="26420" windowHeight="14120" tabRatio="986"/>
+    <workbookView xWindow="1780" yWindow="29060" windowWidth="26420" windowHeight="14120" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="mBom" sheetId="1" r:id="rId1"/>
@@ -645,13 +645,13 @@
     <t>445-4896-1-ND</t>
   </si>
   <si>
-    <t>CONN HEADER .050" 22PS DL PCB AU</t>
-  </si>
-  <si>
-    <t>GRPB112VWVN-RC</t>
-  </si>
-  <si>
-    <t>S9015E-11-ND</t>
+    <t>CONN HEADER .050" 14PS DL PCB AU</t>
+  </si>
+  <si>
+    <t>GRPB072VWVN-RC</t>
+  </si>
+  <si>
+    <t>S9015E-07-ND</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -754,21 +754,6 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -790,14 +775,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1132,63 +1132,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35:Q36"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="7.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="1025" width="8.83203125" style="6"/>
+    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="7.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="1025" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="14" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -2201,26 +2201,26 @@
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024">
-      <c r="A2" s="5"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="7">
+      <c r="A2" s="14"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="2">
         <v>10</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="2">
         <v>100</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="3">
         <v>1000</v>
       </c>
       <c r="O2"/>
@@ -3236,39 +3236,39 @@
     </row>
     <row r="3" spans="1:1024">
       <c r="A3"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="13">
+      <c r="J3" s="4"/>
+      <c r="K3" s="8">
         <v>0.92</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="8">
         <v>0.81699999999999995</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="8">
         <v>0.64500000000000002</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="8">
         <v>0.39679999999999999</v>
       </c>
       <c r="O3"/>
@@ -4284,39 +4284,39 @@
     </row>
     <row r="4" spans="1:1024">
       <c r="A4"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="13">
+      <c r="J4" s="4"/>
+      <c r="K4" s="8">
         <v>15.75</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="8">
         <v>14.318</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="8">
         <v>12.170299999999999</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="8">
         <v>9.5214700000000008</v>
       </c>
       <c r="O4"/>
@@ -5332,37 +5332,37 @@
     </row>
     <row r="5" spans="1:1024">
       <c r="A5"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="13">
+      <c r="J5" s="4"/>
+      <c r="K5" s="8">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="8">
         <v>0.47299999999999998</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="8">
         <v>0.378</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="8">
         <v>0.3024</v>
       </c>
       <c r="O5"/>
@@ -6378,39 +6378,39 @@
     </row>
     <row r="6" spans="1:1024">
       <c r="A6"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="13">
+      <c r="J6" s="4"/>
+      <c r="K6" s="8">
         <v>1.26</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="8">
         <v>1.2250000000000001</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="8" t="s">
         <v>26</v>
       </c>
       <c r="O6"/>
@@ -7426,39 +7426,39 @@
     </row>
     <row r="7" spans="1:1024">
       <c r="A7"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="13">
+      <c r="J7" s="4"/>
+      <c r="K7" s="8">
         <v>1.49</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="8">
         <v>1.24</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="8">
         <v>0.94</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="8" t="s">
         <v>26</v>
       </c>
       <c r="O7"/>
@@ -8474,39 +8474,39 @@
     </row>
     <row r="8" spans="1:1024">
       <c r="A8"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="13">
+      <c r="J8" s="4"/>
+      <c r="K8" s="8">
         <v>0.97</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="8">
         <v>0.752</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="8">
         <v>0.57379999999999998</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="8">
         <v>0.40799999999999997</v>
       </c>
       <c r="O8"/>
@@ -9522,39 +9522,39 @@
     </row>
     <row r="9" spans="1:1024">
       <c r="A9"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="14">
+      <c r="J9" s="4"/>
+      <c r="K9" s="9">
         <v>0.95</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="9">
         <v>0.84</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="9">
         <v>0.69</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="9">
         <v>0.54</v>
       </c>
       <c r="O9"/>
@@ -10570,39 +10570,39 @@
     </row>
     <row r="10" spans="1:1024">
       <c r="A10"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="13">
+      <c r="J10" s="4"/>
+      <c r="K10" s="8">
         <v>0.6</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="8">
         <v>0.5</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="8">
         <v>0.39900000000000002</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="8">
         <v>0.31900000000000001</v>
       </c>
       <c r="O10"/>
@@ -11618,39 +11618,39 @@
     </row>
     <row r="11" spans="1:1024">
       <c r="A11"/>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="13">
+      <c r="J11" s="4"/>
+      <c r="K11" s="8">
         <v>0.4</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="8">
         <v>0.31</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="8">
         <v>0.216</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="8">
         <v>0.11</v>
       </c>
       <c r="O11"/>
@@ -12666,41 +12666,41 @@
     </row>
     <row r="12" spans="1:1024">
       <c r="A12"/>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="13">
+      <c r="J12" s="4"/>
+      <c r="K12" s="8">
         <v>0.1</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="8">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="8">
         <v>6.3E-3</v>
       </c>
       <c r="O12"/>
@@ -13716,41 +13716,41 @@
     </row>
     <row r="13" spans="1:1024">
       <c r="A13"/>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="13">
+      <c r="J13" s="4"/>
+      <c r="K13" s="8">
         <v>0.1</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="8">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="8">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="O13"/>
@@ -14766,41 +14766,41 @@
     </row>
     <row r="14" spans="1:1024">
       <c r="A14"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="13">
+      <c r="J14" s="4"/>
+      <c r="K14" s="8">
         <v>0.17</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="8">
         <v>0.115</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="8">
         <v>0.54600000000000004</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="8">
         <v>0.31630000000000003</v>
       </c>
       <c r="O14"/>
@@ -15816,41 +15816,41 @@
     </row>
     <row r="15" spans="1:1024">
       <c r="A15"/>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="13">
+      <c r="J15" s="4"/>
+      <c r="K15" s="8">
         <v>0.2</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="8">
         <v>6.93E-2</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="8">
         <v>4.2079999999999999E-2</v>
       </c>
       <c r="O15"/>
@@ -16866,41 +16866,41 @@
     </row>
     <row r="16" spans="1:1024">
       <c r="A16"/>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="13">
+      <c r="J16" s="4"/>
+      <c r="K16" s="8">
         <v>0.32</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="8">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="O16"/>
@@ -17916,41 +17916,41 @@
     </row>
     <row r="17" spans="1:1024">
       <c r="A17"/>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="13">
+      <c r="J17" s="4"/>
+      <c r="K17" s="8">
         <v>0.1</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="8">
         <v>1.14E-2</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="8">
         <v>4.1599999999999996E-3</v>
       </c>
       <c r="O17"/>
@@ -18966,41 +18966,41 @@
     </row>
     <row r="18" spans="1:1024">
       <c r="A18"/>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="13">
+      <c r="J18" s="4"/>
+      <c r="K18" s="8">
         <v>0.2</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="8">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="8">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="O18"/>
@@ -20015,695 +20015,698 @@
       <c r="AMJ18"/>
     </row>
     <row r="19" spans="1:1024">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="13">
+      <c r="J19" s="4"/>
+      <c r="K19" s="8">
         <v>0.48</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="8">
         <v>0.45</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="8">
         <v>0.35</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="8">
         <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:1024">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="13">
+      <c r="J20" s="4"/>
+      <c r="K20" s="8">
         <v>0.21</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="8">
         <v>0.2</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="8">
         <v>0.18</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="N20" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:1024">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="13">
+      <c r="J21" s="4"/>
+      <c r="K21" s="8">
         <v>1.41</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="8">
         <v>1.1100000000000001</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="8">
         <v>0.83</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="8">
         <v>0.52</v>
       </c>
     </row>
     <row r="22" spans="1:1024">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9" t="s">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="8">
         <v>1.79</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="8">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="8">
         <v>1.03</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="8">
         <v>0.67700000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:1024" ht="14" customHeight="1">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="12" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="13">
+      <c r="J23" s="4"/>
+      <c r="K23" s="8">
         <v>0.95</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="8">
         <v>0.83899999999999997</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="8">
         <v>0.69340000000000002</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="8">
         <v>0.54774999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:1024">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="13">
+      <c r="J24" s="4"/>
+      <c r="K24" s="8">
         <v>0.1</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="8">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="8">
         <v>2.81E-2</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="8">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:1024">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="13">
+      <c r="J25" s="4"/>
+      <c r="K25" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="8">
         <v>0.02</v>
       </c>
     </row>
     <row r="26" spans="1:1024">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="4">
         <v>68</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="13">
+      <c r="J26" s="4"/>
+      <c r="K26" s="8">
         <v>0.1</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="8">
         <v>0.01</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="8">
         <v>0.01</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="8">
         <v>0.01</v>
       </c>
     </row>
     <row r="27" spans="1:1024">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="13">
+      <c r="J27" s="4"/>
+      <c r="K27" s="8">
         <v>0.33</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="8">
         <v>0.32</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="8">
         <v>0.22</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="28" spans="1:1024">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="4">
         <v>61300821021</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="13">
+      <c r="J28" s="4"/>
+      <c r="K28" s="8">
         <v>0.7</v>
       </c>
-      <c r="L28" s="13" t="s">
+      <c r="L28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="8">
         <v>0.63</v>
       </c>
-      <c r="N28" s="13" t="s">
+      <c r="N28" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1024">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="13">
+      <c r="J29" s="4"/>
+      <c r="K29" s="8">
         <v>1.08</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="8">
         <v>0.97</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="8">
         <v>0.79</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="8">
         <v>0.54</v>
       </c>
     </row>
     <row r="30" spans="1:1024">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="13">
+      <c r="J30" s="4"/>
+      <c r="K30" s="8">
         <v>0.17</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="8">
         <v>0.15</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="8">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:1024">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9" t="s">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="13">
+      <c r="J31" s="4"/>
+      <c r="K31" s="8">
         <v>3.14</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="8">
         <v>2.62</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="8">
         <v>1.99</v>
       </c>
-      <c r="N31" s="13" t="s">
+      <c r="N31" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:1024">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="13">
+      <c r="J32" s="4"/>
+      <c r="K32" s="8">
         <v>0.09</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="8">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="8">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="8">
         <f>-C320603</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="4">
         <v>100</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="13">
+      <c r="J33" s="4"/>
+      <c r="K33" s="8">
         <v>0.08</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="8">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="8">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="8">
         <v>2.4E-2</v>
       </c>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="4">
         <v>649</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="12" t="s">
+      <c r="E34" s="4"/>
+      <c r="F34" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="13">
+      <c r="J34" s="4"/>
+      <c r="K34" s="8">
         <v>0.1</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="8">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="8">
         <v>3.8400000000000001E-3</v>
       </c>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="12" t="s">
+      <c r="E35" s="4"/>
+      <c r="F35" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="13">
+      <c r="J35" s="4"/>
+      <c r="K35" s="8">
         <v>0.1</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="8">
         <v>1.14E-2</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="8">
         <v>4.1599999999999996E-3</v>
       </c>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="13">
+      <c r="J36" s="4"/>
+      <c r="K36" s="8">
         <v>0.1</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="8">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="8">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="8">
         <v>6.3E-3</v>
       </c>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="K37" s="15">
-        <v>1.77</v>
-      </c>
-      <c r="L37" s="15">
-        <v>1.46</v>
-      </c>
-      <c r="M37" s="15">
-        <v>1.0900000000000001</v>
+      <c r="K37" s="10">
+        <v>1.26</v>
+      </c>
+      <c r="L37" s="10">
+        <v>1.048</v>
+      </c>
+      <c r="M37" s="10">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="N37" s="10">
+        <v>0.50439999999999996</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G32" r:id="rId1"/>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="29060" windowWidth="26420" windowHeight="14120" tabRatio="986"/>
+    <workbookView xWindow="3360" yWindow="2900" windowWidth="25600" windowHeight="16060" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="mBom" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="214">
   <si>
     <t>Part</t>
   </si>
@@ -652,6 +652,15 @@
   </si>
   <si>
     <t>S9015E-07-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER .050" 24PS DL PCB AU</t>
+  </si>
+  <si>
+    <t>GRPB122VWVN-RC</t>
+  </si>
+  <si>
+    <t>S9015E-12-ND</t>
   </si>
 </sst>
 </file>
@@ -784,19 +793,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK37"/>
+  <dimension ref="A1:AMK38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1153,19 +1162,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="14" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
@@ -1174,21 +1183,21 @@
       <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -2201,16 +2210,16 @@
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024">
-      <c r="A2" s="14"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="12"/>
-      <c r="C2" s="15"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="2">
         <v>1</v>
       </c>
@@ -20694,19 +20703,48 @@
         <v>0.50439999999999996</v>
       </c>
     </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K38" s="10">
+        <v>1.93</v>
+      </c>
+      <c r="L38" s="10">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="M38" s="10">
+        <v>1.19</v>
+      </c>
+      <c r="N38" s="10">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G32" r:id="rId1"/>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="mBom" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="227">
   <si>
     <t>Part</t>
   </si>
@@ -675,16 +675,38 @@
   </si>
   <si>
     <t>MAX3051ESA+-ND </t>
+  </si>
+  <si>
+    <t>4 output DAC</t>
+  </si>
+  <si>
+    <t>10-TFSOP </t>
+  </si>
+  <si>
+    <t>2.7-5.5V</t>
+  </si>
+  <si>
+    <t>IC DAC 12BIT QUAD R-R 10-MSOP </t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>DAC124S085CIMM/NOPB</t>
+  </si>
+  <si>
+    <t>DAC124S085CIMM/NOPBCT-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -725,12 +747,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -802,16 +830,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -823,7 +847,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -847,7 +871,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -859,12 +883,32 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -873,6 +917,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -892,10 +940,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B25" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -910,1324 +958,1324 @@
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.5"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.5"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="27.1581632653061"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="2" width="7.16326530612245"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="1" width="7.16326530612245"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="8.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="8" t="n">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="L2" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="M2" s="8" t="n">
+      <c r="M2" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="N2" s="9" t="n">
+      <c r="N2" s="8" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="10" t="s">
+    <row r="3" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="14" t="n">
+      <c r="J3" s="9"/>
+      <c r="K3" s="13" t="n">
         <v>0.92</v>
       </c>
-      <c r="L3" s="14" t="n">
+      <c r="L3" s="13" t="n">
         <v>0.817</v>
       </c>
-      <c r="M3" s="14" t="n">
+      <c r="M3" s="13" t="n">
         <v>0.645</v>
       </c>
-      <c r="N3" s="14" t="n">
+      <c r="N3" s="13" t="n">
         <v>0.3968</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="14" t="n">
+      <c r="J4" s="9"/>
+      <c r="K4" s="13" t="n">
         <v>15.75</v>
       </c>
-      <c r="L4" s="14" t="n">
+      <c r="L4" s="13" t="n">
         <v>14.318</v>
       </c>
-      <c r="M4" s="14" t="n">
+      <c r="M4" s="13" t="n">
         <v>12.1703</v>
       </c>
-      <c r="N4" s="14" t="n">
+      <c r="N4" s="13" t="n">
         <v>9.52147</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="13" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="14" t="n">
+      <c r="J5" s="9"/>
+      <c r="K5" s="13" t="n">
         <v>0.57</v>
       </c>
-      <c r="L5" s="14" t="n">
+      <c r="L5" s="13" t="n">
         <v>0.473</v>
       </c>
-      <c r="M5" s="14" t="n">
+      <c r="M5" s="13" t="n">
         <v>0.378</v>
       </c>
-      <c r="N5" s="14" t="n">
+      <c r="N5" s="13" t="n">
         <v>0.3024</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="14" t="n">
+      <c r="J6" s="9"/>
+      <c r="K6" s="13" t="n">
         <v>1.26</v>
       </c>
-      <c r="L6" s="14" t="n">
+      <c r="L6" s="13" t="n">
         <v>1.225</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="14" t="n">
+      <c r="J7" s="9"/>
+      <c r="K7" s="13" t="n">
         <v>1.49</v>
       </c>
-      <c r="L7" s="14" t="n">
+      <c r="L7" s="13" t="n">
         <v>1.24</v>
       </c>
-      <c r="M7" s="14" t="n">
+      <c r="M7" s="13" t="n">
         <v>0.94</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="14" t="n">
+      <c r="J8" s="9"/>
+      <c r="K8" s="13" t="n">
         <v>0.97</v>
       </c>
-      <c r="L8" s="14" t="n">
+      <c r="L8" s="13" t="n">
         <v>0.752</v>
       </c>
-      <c r="M8" s="14" t="n">
+      <c r="M8" s="13" t="n">
         <v>0.5738</v>
       </c>
-      <c r="N8" s="14" t="n">
+      <c r="N8" s="13" t="n">
         <v>0.408</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="15" t="n">
+      <c r="J9" s="9"/>
+      <c r="K9" s="14" t="n">
         <v>0.95</v>
       </c>
-      <c r="L9" s="15" t="n">
+      <c r="L9" s="14" t="n">
         <v>0.84</v>
       </c>
-      <c r="M9" s="15" t="n">
+      <c r="M9" s="14" t="n">
         <v>0.69</v>
       </c>
-      <c r="N9" s="15" t="n">
+      <c r="N9" s="14" t="n">
         <v>0.54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="14" t="n">
+      <c r="J10" s="9"/>
+      <c r="K10" s="13" t="n">
         <v>0.6</v>
       </c>
-      <c r="L10" s="14" t="n">
+      <c r="L10" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="M10" s="14" t="n">
+      <c r="M10" s="13" t="n">
         <v>0.399</v>
       </c>
-      <c r="N10" s="14" t="n">
+      <c r="N10" s="13" t="n">
         <v>0.319</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="14" t="n">
+      <c r="J11" s="9"/>
+      <c r="K11" s="13" t="n">
         <v>0.4</v>
       </c>
-      <c r="L11" s="14" t="n">
+      <c r="L11" s="13" t="n">
         <v>0.31</v>
       </c>
-      <c r="M11" s="14" t="n">
+      <c r="M11" s="13" t="n">
         <v>0.216</v>
       </c>
-      <c r="N11" s="14" t="n">
+      <c r="N11" s="13" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="14" t="n">
+      <c r="J12" s="9"/>
+      <c r="K12" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="L12" s="14" t="n">
+      <c r="L12" s="13" t="n">
         <v>0.025</v>
       </c>
-      <c r="M12" s="14" t="n">
+      <c r="M12" s="13" t="n">
         <v>0.0116</v>
       </c>
-      <c r="N12" s="14" t="n">
+      <c r="N12" s="13" t="n">
         <v>0.0063</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="14" t="n">
+      <c r="J13" s="9"/>
+      <c r="K13" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="L13" s="14" t="n">
+      <c r="L13" s="13" t="n">
         <v>0.041</v>
       </c>
-      <c r="M13" s="14" t="n">
+      <c r="M13" s="13" t="n">
         <v>0.0187</v>
       </c>
-      <c r="N13" s="14" t="n">
+      <c r="N13" s="13" t="n">
         <v>0.0102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="14" t="n">
+      <c r="J14" s="9"/>
+      <c r="K14" s="13" t="n">
         <v>0.17</v>
       </c>
-      <c r="L14" s="14" t="n">
+      <c r="L14" s="13" t="n">
         <v>0.115</v>
       </c>
-      <c r="M14" s="14" t="n">
+      <c r="M14" s="13" t="n">
         <v>0.546</v>
       </c>
-      <c r="N14" s="14" t="n">
+      <c r="N14" s="13" t="n">
         <v>0.3163</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="14" t="n">
+      <c r="J15" s="9"/>
+      <c r="K15" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="L15" s="14" t="n">
+      <c r="L15" s="13" t="n">
         <v>0.136</v>
       </c>
-      <c r="M15" s="14" t="n">
+      <c r="M15" s="13" t="n">
         <v>0.0693</v>
       </c>
-      <c r="N15" s="14" t="n">
+      <c r="N15" s="13" t="n">
         <v>0.04208</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="14" t="n">
+      <c r="J16" s="9"/>
+      <c r="K16" s="13" t="n">
         <v>0.32</v>
       </c>
-      <c r="L16" s="14" t="n">
+      <c r="L16" s="13" t="n">
         <v>0.28</v>
       </c>
-      <c r="M16" s="14" t="n">
+      <c r="M16" s="13" t="n">
         <v>0.14</v>
       </c>
-      <c r="N16" s="14" t="n">
+      <c r="N16" s="13" t="n">
         <v>0.092</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="14" t="n">
+      <c r="J17" s="9"/>
+      <c r="K17" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="14" t="n">
+      <c r="M17" s="13" t="n">
         <v>0.0114</v>
       </c>
-      <c r="N17" s="14" t="n">
+      <c r="N17" s="13" t="n">
         <v>0.00416</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="14" t="n">
+      <c r="J18" s="9"/>
+      <c r="K18" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="L18" s="14" t="n">
+      <c r="L18" s="13" t="n">
         <v>0.14</v>
       </c>
-      <c r="M18" s="14" t="n">
+      <c r="M18" s="13" t="n">
         <v>0.066</v>
       </c>
-      <c r="N18" s="14" t="n">
+      <c r="N18" s="13" t="n">
         <v>0.037</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="14" t="n">
+      <c r="J19" s="9"/>
+      <c r="K19" s="13" t="n">
         <v>0.48</v>
       </c>
-      <c r="L19" s="14" t="n">
+      <c r="L19" s="13" t="n">
         <v>0.45</v>
       </c>
-      <c r="M19" s="14" t="n">
+      <c r="M19" s="13" t="n">
         <v>0.35</v>
       </c>
-      <c r="N19" s="14" t="n">
+      <c r="N19" s="13" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="14" t="n">
+      <c r="J20" s="9"/>
+      <c r="K20" s="13" t="n">
         <v>0.21</v>
       </c>
-      <c r="L20" s="14" t="n">
+      <c r="L20" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="M20" s="14" t="n">
+      <c r="M20" s="13" t="n">
         <v>0.18</v>
       </c>
-      <c r="N20" s="14" t="s">
+      <c r="N20" s="13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="14" t="n">
+      <c r="J21" s="9"/>
+      <c r="K21" s="13" t="n">
         <v>1.41</v>
       </c>
-      <c r="L21" s="14" t="n">
+      <c r="L21" s="13" t="n">
         <v>1.11</v>
       </c>
-      <c r="M21" s="14" t="n">
+      <c r="M21" s="13" t="n">
         <v>0.83</v>
       </c>
-      <c r="N21" s="14" t="n">
+      <c r="N21" s="13" t="n">
         <v>0.52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10" t="s">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="K22" s="14" t="n">
+      <c r="K22" s="13" t="n">
         <v>1.79</v>
       </c>
-      <c r="L22" s="14" t="n">
+      <c r="L22" s="13" t="n">
         <v>1.16</v>
       </c>
-      <c r="M22" s="14" t="n">
+      <c r="M22" s="13" t="n">
         <v>1.03</v>
       </c>
-      <c r="N22" s="14" t="n">
+      <c r="N22" s="13" t="n">
         <v>0.677</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="13" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="14" t="n">
+      <c r="J23" s="9"/>
+      <c r="K23" s="13" t="n">
         <v>0.95</v>
       </c>
-      <c r="L23" s="14" t="n">
+      <c r="L23" s="13" t="n">
         <v>0.839</v>
       </c>
-      <c r="M23" s="14" t="n">
+      <c r="M23" s="13" t="n">
         <v>0.6934</v>
       </c>
-      <c r="N23" s="14" t="n">
+      <c r="N23" s="13" t="n">
         <v>0.54775</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="14" t="n">
+      <c r="J24" s="9"/>
+      <c r="K24" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="L24" s="14" t="n">
+      <c r="L24" s="13" t="n">
         <v>0.061</v>
       </c>
-      <c r="M24" s="14" t="n">
+      <c r="M24" s="13" t="n">
         <v>0.0281</v>
       </c>
-      <c r="N24" s="14" t="n">
+      <c r="N24" s="13" t="n">
         <v>0.0153</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="10" t="n">
+      <c r="D25" s="9" t="n">
         <v>5.1</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="14" t="n">
+      <c r="J25" s="9"/>
+      <c r="K25" s="13" t="n">
         <v>0.07</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="14" t="n">
+      <c r="N25" s="13" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="10" t="n">
+      <c r="D26" s="9" t="n">
         <v>68</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="14" t="n">
+      <c r="J26" s="9"/>
+      <c r="K26" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="L26" s="14" t="n">
+      <c r="L26" s="13" t="n">
         <v>0.01</v>
       </c>
-      <c r="M26" s="14" t="n">
+      <c r="M26" s="13" t="n">
         <v>0.01</v>
       </c>
-      <c r="N26" s="14" t="n">
+      <c r="N26" s="13" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="14" t="n">
+      <c r="J27" s="9"/>
+      <c r="K27" s="13" t="n">
         <v>0.33</v>
       </c>
-      <c r="L27" s="14" t="n">
+      <c r="L27" s="13" t="n">
         <v>0.32</v>
       </c>
-      <c r="M27" s="14" t="n">
+      <c r="M27" s="13" t="n">
         <v>0.22</v>
       </c>
-      <c r="N27" s="14" t="n">
+      <c r="N27" s="13" t="n">
         <v>0.15</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H28" s="10" t="n">
+      <c r="H28" s="9" t="n">
         <v>61300821021</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="14" t="n">
+      <c r="J28" s="9"/>
+      <c r="K28" s="13" t="n">
         <v>0.7</v>
       </c>
-      <c r="L28" s="14" t="s">
+      <c r="L28" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="14" t="n">
+      <c r="M28" s="13" t="n">
         <v>0.63</v>
       </c>
-      <c r="N28" s="14" t="s">
+      <c r="N28" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="14" t="n">
+      <c r="J29" s="9"/>
+      <c r="K29" s="13" t="n">
         <v>1.08</v>
       </c>
-      <c r="L29" s="14" t="n">
+      <c r="L29" s="13" t="n">
         <v>0.97</v>
       </c>
-      <c r="M29" s="14" t="n">
+      <c r="M29" s="13" t="n">
         <v>0.79</v>
       </c>
-      <c r="N29" s="14" t="n">
+      <c r="N29" s="13" t="n">
         <v>0.54</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10" t="s">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="14" t="n">
+      <c r="J30" s="9"/>
+      <c r="K30" s="13" t="n">
         <v>0.17</v>
       </c>
-      <c r="L30" s="14" t="s">
+      <c r="L30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="14" t="n">
+      <c r="M30" s="13" t="n">
         <v>0.15</v>
       </c>
-      <c r="N30" s="14" t="n">
+      <c r="N30" s="13" t="n">
         <v>0.14</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="10" t="s">
+    <row r="31" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10" t="s">
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="14" t="n">
+      <c r="J31" s="16"/>
+      <c r="K31" s="18" t="n">
         <v>3.14</v>
       </c>
-      <c r="L31" s="14" t="n">
+      <c r="L31" s="18" t="n">
         <v>2.62</v>
       </c>
-      <c r="M31" s="14" t="n">
+      <c r="M31" s="18" t="n">
         <v>1.99</v>
       </c>
-      <c r="N31" s="14" t="s">
+      <c r="N31" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="14" t="n">
+      <c r="J32" s="9"/>
+      <c r="K32" s="13" t="n">
         <v>0.09</v>
       </c>
-      <c r="L32" s="14" t="n">
+      <c r="L32" s="13" t="n">
         <v>0.073</v>
       </c>
-      <c r="M32" s="14" t="n">
+      <c r="M32" s="13" t="n">
         <v>0.0585</v>
       </c>
-      <c r="N32" s="14" t="n">
+      <c r="N32" s="13" t="n">
         <f aca="false">-C320603</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="10" t="n">
+      <c r="D33" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="14" t="n">
+      <c r="J33" s="9"/>
+      <c r="K33" s="13" t="n">
         <v>0.08</v>
       </c>
-      <c r="L33" s="14" t="n">
+      <c r="L33" s="13" t="n">
         <v>0.069</v>
       </c>
-      <c r="M33" s="14" t="n">
+      <c r="M33" s="13" t="n">
         <v>0.0408</v>
       </c>
-      <c r="N33" s="14" t="n">
+      <c r="N33" s="13" t="n">
         <v>0.024</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="10" t="n">
+      <c r="D34" s="9" t="n">
         <v>649</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="13" t="s">
+      <c r="E34" s="9"/>
+      <c r="F34" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="14" t="n">
+      <c r="J34" s="9"/>
+      <c r="K34" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="L34" s="14" t="n">
+      <c r="L34" s="13" t="n">
         <v>0.025</v>
       </c>
-      <c r="M34" s="14" t="n">
+      <c r="M34" s="13" t="n">
         <v>0.0105</v>
       </c>
-      <c r="N34" s="14" t="n">
+      <c r="N34" s="13" t="n">
         <v>0.00384</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="13" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="14" t="n">
+      <c r="J35" s="9"/>
+      <c r="K35" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="L35" s="14" t="n">
+      <c r="L35" s="13" t="n">
         <v>0.015</v>
       </c>
-      <c r="M35" s="14" t="n">
+      <c r="M35" s="13" t="n">
         <v>0.0114</v>
       </c>
-      <c r="N35" s="14" t="n">
+      <c r="N35" s="13" t="n">
         <v>0.00416</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I36" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="14" t="n">
+      <c r="J36" s="9"/>
+      <c r="K36" s="13" t="n">
         <v>0.1</v>
       </c>
-      <c r="L36" s="14" t="n">
+      <c r="L36" s="13" t="n">
         <v>0.026</v>
       </c>
-      <c r="M36" s="14" t="n">
+      <c r="M36" s="13" t="n">
         <v>0.011</v>
       </c>
-      <c r="N36" s="14" t="n">
+      <c r="N36" s="13" t="n">
         <v>0.0063</v>
       </c>
     </row>
@@ -2235,6 +2283,9 @@
       <c r="B37" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
       <c r="F37" s="1" t="s">
         <v>208</v>
       </c>
@@ -2247,16 +2298,16 @@
       <c r="I37" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="K37" s="2" t="n">
+      <c r="K37" s="19" t="n">
         <v>1.26</v>
       </c>
-      <c r="L37" s="2" t="n">
+      <c r="L37" s="19" t="n">
         <v>1.048</v>
       </c>
-      <c r="M37" s="2" t="n">
+      <c r="M37" s="19" t="n">
         <v>0.776</v>
       </c>
-      <c r="N37" s="2" t="n">
+      <c r="N37" s="19" t="n">
         <v>0.5044</v>
       </c>
     </row>
@@ -2264,6 +2315,9 @@
       <c r="B38" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
       <c r="F38" s="1" t="s">
         <v>211</v>
       </c>
@@ -2276,24 +2330,24 @@
       <c r="I38" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K38" s="2" t="n">
+      <c r="K38" s="19" t="n">
         <v>1.93</v>
       </c>
-      <c r="L38" s="2" t="n">
+      <c r="L38" s="19" t="n">
         <v>1.596</v>
       </c>
-      <c r="M38" s="2" t="n">
+      <c r="M38" s="19" t="n">
         <v>1.19</v>
       </c>
-      <c r="N38" s="2" t="n">
+      <c r="N38" s="19" t="n">
         <v>0.884</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="21" t="s">
         <v>215</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -2302,29 +2356,64 @@
       <c r="E39" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="21" t="s">
         <v>217</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="K39" s="2" t="n">
+      <c r="K39" s="19" t="n">
         <v>1.82</v>
       </c>
-      <c r="L39" s="2" t="n">
+      <c r="L39" s="19" t="n">
         <v>1.729</v>
       </c>
-      <c r="M39" s="2" t="n">
+      <c r="M39" s="19" t="n">
         <v>1.5556</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="N39" s="19" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="28.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="K40" s="22" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="L40" s="22" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="M40" s="22" t="n">
+        <v>5.157</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>3.375</v>
       </c>
     </row>
   </sheetData>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="232">
   <si>
     <t>Part</t>
   </si>
@@ -696,6 +696,21 @@
   </si>
   <si>
     <t>DAC124S085CIMM/NOPBCT-ND</t>
+  </si>
+  <si>
+    <t>ABS07</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>CRYSTAL 32.768KHZ 6PF SMD </t>
+  </si>
+  <si>
+    <t>ABS07-120-32.768KHZ-T</t>
+  </si>
+  <si>
+    <t>535-11937-1-ND </t>
   </si>
 </sst>
 </file>
@@ -708,7 +723,7 @@
     <numFmt numFmtId="166" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -735,14 +750,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -830,7 +837,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -887,10 +894,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -903,16 +906,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -940,13 +951,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.3265306122449"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.5051020408163"/>
@@ -1000,7 +1011,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -1061,7 +1072,7 @@
         <v>0.3968</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
@@ -1098,42 +1109,42 @@
         <v>9.52147</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="9" t="s">
+    <row r="5" s="14" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="13" t="n">
+      <c r="J5" s="15"/>
+      <c r="K5" s="19" t="n">
         <v>0.57</v>
       </c>
-      <c r="L5" s="13" t="n">
+      <c r="L5" s="19" t="n">
         <v>0.473</v>
       </c>
-      <c r="M5" s="13" t="n">
+      <c r="M5" s="19" t="n">
         <v>0.378</v>
       </c>
-      <c r="N5" s="13" t="n">
+      <c r="N5" s="19" t="n">
         <v>0.3024</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="9" t="s">
         <v>30</v>
       </c>
@@ -1170,7 +1181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
@@ -1207,7 +1218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="9" t="s">
         <v>44</v>
       </c>
@@ -1244,7 +1255,7 @@
         <v>0.408</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="9" t="s">
         <v>51</v>
       </c>
@@ -1268,57 +1279,57 @@
         <v>33</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="14" t="n">
+      <c r="K9" s="20" t="n">
         <v>0.95</v>
       </c>
-      <c r="L9" s="14" t="n">
+      <c r="L9" s="20" t="n">
         <v>0.84</v>
       </c>
-      <c r="M9" s="14" t="n">
+      <c r="M9" s="20" t="n">
         <v>0.69</v>
       </c>
-      <c r="N9" s="14" t="n">
+      <c r="N9" s="20" t="n">
         <v>0.54</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="9" t="s">
+    <row r="10" s="14" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="13" t="n">
+      <c r="J10" s="15"/>
+      <c r="K10" s="19" t="n">
         <v>0.6</v>
       </c>
-      <c r="L10" s="13" t="n">
+      <c r="L10" s="19" t="n">
         <v>0.5</v>
       </c>
-      <c r="M10" s="13" t="n">
+      <c r="M10" s="19" t="n">
         <v>0.399</v>
       </c>
-      <c r="N10" s="13" t="n">
+      <c r="N10" s="19" t="n">
         <v>0.319</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="9" t="s">
         <v>62</v>
       </c>
@@ -1355,7 +1366,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="9" t="s">
         <v>69</v>
       </c>
@@ -1394,7 +1405,7 @@
         <v>0.0063</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="9" t="s">
         <v>77</v>
       </c>
@@ -1433,7 +1444,7 @@
         <v>0.0102</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="s">
         <v>83</v>
       </c>
@@ -1472,7 +1483,7 @@
         <v>0.3163</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="s">
         <v>89</v>
       </c>
@@ -1511,7 +1522,7 @@
         <v>0.04208</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="9" t="s">
         <v>95</v>
       </c>
@@ -1550,7 +1561,7 @@
         <v>0.092</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="9" t="s">
         <v>101</v>
       </c>
@@ -1589,7 +1600,7 @@
         <v>0.00416</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9" t="s">
         <v>108</v>
       </c>
@@ -1628,7 +1639,7 @@
         <v>0.037</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="9" t="s">
         <v>115</v>
       </c>
@@ -1661,7 +1672,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
         <v>120</v>
       </c>
@@ -1694,7 +1705,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="9" t="s">
         <v>126</v>
       </c>
@@ -1731,7 +1742,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="9" t="s">
         <v>133</v>
       </c>
@@ -1766,7 +1777,7 @@
         <v>0.677</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="28.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
         <v>139</v>
       </c>
@@ -1801,7 +1812,7 @@
         <v>0.54775</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="s">
         <v>141</v>
       </c>
@@ -1840,7 +1851,7 @@
         <v>0.0153</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="s">
         <v>147</v>
       </c>
@@ -1879,7 +1890,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
         <v>153</v>
       </c>
@@ -1918,7 +1929,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
         <v>157</v>
       </c>
@@ -1951,7 +1962,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
         <v>157</v>
       </c>
@@ -1984,7 +1995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
         <v>157</v>
       </c>
@@ -2017,7 +2028,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
         <v>169</v>
       </c>
@@ -2052,42 +2063,42 @@
         <v>0.14</v>
       </c>
     </row>
-    <row r="31" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="16" t="s">
+    <row r="31" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16" t="s">
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="I31" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="J31" s="16"/>
-      <c r="K31" s="18" t="n">
+      <c r="J31" s="15"/>
+      <c r="K31" s="19" t="n">
         <v>3.14</v>
       </c>
-      <c r="L31" s="18" t="n">
+      <c r="L31" s="19" t="n">
         <v>2.62</v>
       </c>
-      <c r="M31" s="18" t="n">
+      <c r="M31" s="19" t="n">
         <v>1.99</v>
       </c>
-      <c r="N31" s="18" t="s">
+      <c r="N31" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="12" t="s">
         <v>180</v>
       </c>
@@ -2127,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="12" t="s">
         <v>186</v>
       </c>
@@ -2166,7 +2177,7 @@
         <v>0.024</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="9" t="s">
         <v>192</v>
       </c>
@@ -2203,7 +2214,7 @@
         <v>0.00384</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="9" t="s">
         <v>197</v>
       </c>
@@ -2240,7 +2251,7 @@
         <v>0.00416</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="9" t="s">
         <v>202</v>
       </c>
@@ -2279,7 +2290,7 @@
         <v>0.0063</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
         <v>157</v>
       </c>
@@ -2298,20 +2309,20 @@
       <c r="I37" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="K37" s="19" t="n">
+      <c r="K37" s="21" t="n">
         <v>1.26</v>
       </c>
-      <c r="L37" s="19" t="n">
+      <c r="L37" s="21" t="n">
         <v>1.048</v>
       </c>
-      <c r="M37" s="19" t="n">
+      <c r="M37" s="21" t="n">
         <v>0.776</v>
       </c>
-      <c r="N37" s="19" t="n">
+      <c r="N37" s="21" t="n">
         <v>0.5044</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
         <v>157</v>
       </c>
@@ -2330,24 +2341,24 @@
       <c r="I38" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K38" s="19" t="n">
+      <c r="K38" s="21" t="n">
         <v>1.93</v>
       </c>
-      <c r="L38" s="19" t="n">
+      <c r="L38" s="21" t="n">
         <v>1.596</v>
       </c>
-      <c r="M38" s="19" t="n">
+      <c r="M38" s="21" t="n">
         <v>1.19</v>
       </c>
-      <c r="N38" s="19" t="n">
+      <c r="N38" s="21" t="n">
         <v>0.884</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="22" t="s">
         <v>215</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -2356,28 +2367,28 @@
       <c r="E39" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="22" t="s">
         <v>217</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H39" s="20" t="s">
+      <c r="H39" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="I39" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="K39" s="19" t="n">
+      <c r="K39" s="21" t="n">
         <v>1.82</v>
       </c>
-      <c r="L39" s="19" t="n">
+      <c r="L39" s="21" t="n">
         <v>1.729</v>
       </c>
-      <c r="M39" s="19" t="n">
+      <c r="M39" s="21" t="n">
         <v>1.5556</v>
       </c>
-      <c r="N39" s="19" t="s">
+      <c r="N39" s="21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2385,35 +2396,67 @@
       <c r="B40" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="22" t="s">
         <v>221</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="22" t="s">
         <v>223</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H40" s="20" t="s">
+      <c r="H40" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I40" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="K40" s="22" t="n">
+      <c r="K40" s="23" t="n">
         <v>6.97</v>
       </c>
-      <c r="L40" s="22" t="n">
+      <c r="L40" s="23" t="n">
         <v>6.26</v>
       </c>
-      <c r="M40" s="22" t="n">
+      <c r="M40" s="23" t="n">
         <v>5.157</v>
       </c>
-      <c r="N40" s="22" t="n">
+      <c r="N40" s="23" t="n">
         <v>3.375</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="K41" s="23" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L41" s="23" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M41" s="23" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="N41" s="23" t="n">
+        <v>0.42502</v>
       </c>
     </row>
   </sheetData>
@@ -2430,9 +2473,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:N1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G32" r:id="rId1" display="OSRAM Opto Semiconductors Inc"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18060" windowHeight="17560" tabRatio="986"/>
   </bookViews>
   <sheets>
-    <sheet name="mBom" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="mBom" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="237">
   <si>
     <t>Part</t>
   </si>
@@ -662,31 +666,31 @@
     <t>MAX3051ESA+</t>
   </si>
   <si>
-    <t>8-SOIC N </t>
+    <t>8-SOIC N</t>
   </si>
   <si>
     <t>3.14 – 3.47 V</t>
   </si>
   <si>
-    <t>IC TXRX CAN 1MBPS 8-SOIC </t>
+    <t>IC TXRX CAN 1MBPS 8-SOIC</t>
   </si>
   <si>
     <t>Maxim Integrated</t>
   </si>
   <si>
-    <t>MAX3051ESA+-ND </t>
+    <t>MAX3051ESA+-ND</t>
   </si>
   <si>
     <t>4 output DAC</t>
   </si>
   <si>
-    <t>10-TFSOP </t>
+    <t>10-TFSOP</t>
   </si>
   <si>
     <t>2.7-5.5V</t>
   </si>
   <si>
-    <t>IC DAC 12BIT QUAD R-R 10-MSOP </t>
+    <t>IC DAC 12BIT QUAD R-R 10-MSOP</t>
   </si>
   <si>
     <t>Texas Instruments</t>
@@ -704,47 +708,45 @@
     <t>SMD</t>
   </si>
   <si>
-    <t>CRYSTAL 32.768KHZ 6PF SMD </t>
+    <t>CRYSTAL 32.768KHZ 6PF SMD</t>
   </si>
   <si>
     <t>ABS07-120-32.768KHZ-T</t>
   </si>
   <si>
-    <t>535-11937-1-ND </t>
+    <t>535-11937-1-ND</t>
+  </si>
+  <si>
+    <t>11pF</t>
+  </si>
+  <si>
+    <t>11pF Capacitor</t>
+  </si>
+  <si>
+    <t>CAP CER 11PF 50V 5% NP0 0402</t>
+  </si>
+  <si>
+    <t>490-5923-1-ND</t>
+  </si>
+  <si>
+    <t>GRM1555C1H110JA01D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="\$#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -769,273 +771,559 @@
     </fill>
   </fills>
   <borders count="6">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.3265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.5051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.16326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.6683673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="39.1632653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="40.5"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.5"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="27.1581632653061"/>
-    <col collapsed="false" hidden="false" max="14" min="11" style="1" width="7.16326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="8.8265306122449"/>
+    <col min="1" max="1" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="1025" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" ht="14" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="7" t="n">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="7">
         <v>1</v>
       </c>
-      <c r="L2" s="7" t="n">
+      <c r="L2" s="7">
         <v>10</v>
       </c>
-      <c r="M2" s="7" t="n">
+      <c r="M2" s="7">
         <v>100</v>
       </c>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:14">
       <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
@@ -1059,20 +1347,20 @@
         <v>17</v>
       </c>
       <c r="J3" s="9"/>
-      <c r="K3" s="13" t="n">
+      <c r="K3" s="13">
         <v>0.92</v>
       </c>
-      <c r="L3" s="13" t="n">
-        <v>0.817</v>
-      </c>
-      <c r="M3" s="13" t="n">
-        <v>0.645</v>
-      </c>
-      <c r="N3" s="13" t="n">
-        <v>0.3968</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="13">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0.39679999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
@@ -1096,20 +1384,20 @@
         <v>24</v>
       </c>
       <c r="J4" s="9"/>
-      <c r="K4" s="13" t="n">
+      <c r="K4" s="13">
         <v>15.75</v>
       </c>
-      <c r="L4" s="13" t="n">
+      <c r="L4" s="13">
         <v>14.318</v>
       </c>
-      <c r="M4" s="13" t="n">
-        <v>12.1703</v>
-      </c>
-      <c r="N4" s="13" t="n">
-        <v>9.52147</v>
-      </c>
-    </row>
-    <row r="5" s="14" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M4" s="13">
+        <v>12.170299999999999</v>
+      </c>
+      <c r="N4" s="13">
+        <v>9.5214700000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="14" customFormat="1">
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
@@ -1131,20 +1419,20 @@
         <v>29</v>
       </c>
       <c r="J5" s="15"/>
-      <c r="K5" s="19" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="L5" s="19" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="M5" s="19" t="n">
+      <c r="K5" s="19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L5" s="19">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="M5" s="19">
         <v>0.378</v>
       </c>
-      <c r="N5" s="19" t="n">
+      <c r="N5" s="19">
         <v>0.3024</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:14">
       <c r="B6" s="9" t="s">
         <v>30</v>
       </c>
@@ -1168,11 +1456,11 @@
         <v>36</v>
       </c>
       <c r="J6" s="9"/>
-      <c r="K6" s="13" t="n">
+      <c r="K6" s="13">
         <v>1.26</v>
       </c>
-      <c r="L6" s="13" t="n">
-        <v>1.225</v>
+      <c r="L6" s="13">
+        <v>1.2250000000000001</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>26</v>
@@ -1181,7 +1469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:14">
       <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
@@ -1205,20 +1493,20 @@
         <v>43</v>
       </c>
       <c r="J7" s="9"/>
-      <c r="K7" s="13" t="n">
+      <c r="K7" s="13">
         <v>1.49</v>
       </c>
-      <c r="L7" s="13" t="n">
+      <c r="L7" s="13">
         <v>1.24</v>
       </c>
-      <c r="M7" s="13" t="n">
+      <c r="M7" s="13">
         <v>0.94</v>
       </c>
       <c r="N7" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:14">
       <c r="B8" s="9" t="s">
         <v>44</v>
       </c>
@@ -1242,20 +1530,20 @@
         <v>50</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="13" t="n">
+      <c r="K8" s="13">
         <v>0.97</v>
       </c>
-      <c r="L8" s="13" t="n">
+      <c r="L8" s="13">
         <v>0.752</v>
       </c>
-      <c r="M8" s="13" t="n">
-        <v>0.5738</v>
-      </c>
-      <c r="N8" s="13" t="n">
-        <v>0.408</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="13">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="N8" s="13">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="B9" s="9" t="s">
         <v>51</v>
       </c>
@@ -1279,20 +1567,20 @@
         <v>33</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="20" t="n">
+      <c r="K9" s="20">
         <v>0.95</v>
       </c>
-      <c r="L9" s="20" t="n">
+      <c r="L9" s="20">
         <v>0.84</v>
       </c>
-      <c r="M9" s="20" t="n">
+      <c r="M9" s="20">
         <v>0.69</v>
       </c>
-      <c r="N9" s="20" t="n">
+      <c r="N9" s="20">
         <v>0.54</v>
       </c>
     </row>
-    <row r="10" s="14" customFormat="true" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:14" s="14" customFormat="1">
       <c r="B10" s="15" t="s">
         <v>56</v>
       </c>
@@ -1316,20 +1604,20 @@
         <v>61</v>
       </c>
       <c r="J10" s="15"/>
-      <c r="K10" s="19" t="n">
+      <c r="K10" s="19">
         <v>0.6</v>
       </c>
-      <c r="L10" s="19" t="n">
+      <c r="L10" s="19">
         <v>0.5</v>
       </c>
-      <c r="M10" s="19" t="n">
-        <v>0.399</v>
-      </c>
-      <c r="N10" s="19" t="n">
-        <v>0.319</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="19">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="N10" s="19">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="B11" s="9" t="s">
         <v>62</v>
       </c>
@@ -1353,20 +1641,20 @@
         <v>68</v>
       </c>
       <c r="J11" s="9"/>
-      <c r="K11" s="13" t="n">
+      <c r="K11" s="13">
         <v>0.4</v>
       </c>
-      <c r="L11" s="13" t="n">
+      <c r="L11" s="13">
         <v>0.31</v>
       </c>
-      <c r="M11" s="13" t="n">
+      <c r="M11" s="13">
         <v>0.216</v>
       </c>
-      <c r="N11" s="13" t="n">
+      <c r="N11" s="13">
         <v>0.11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:14">
       <c r="B12" s="9" t="s">
         <v>69</v>
       </c>
@@ -1392,20 +1680,20 @@
         <v>76</v>
       </c>
       <c r="J12" s="9"/>
-      <c r="K12" s="13" t="n">
+      <c r="K12" s="13">
         <v>0.1</v>
       </c>
-      <c r="L12" s="13" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="M12" s="13" t="n">
-        <v>0.0116</v>
-      </c>
-      <c r="N12" s="13" t="n">
-        <v>0.0063</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L12" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M12" s="13">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="N12" s="13">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="B13" s="9" t="s">
         <v>77</v>
       </c>
@@ -1431,20 +1719,20 @@
         <v>82</v>
       </c>
       <c r="J13" s="9"/>
-      <c r="K13" s="13" t="n">
+      <c r="K13" s="13">
         <v>0.1</v>
       </c>
-      <c r="L13" s="13" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="M13" s="13" t="n">
-        <v>0.0187</v>
-      </c>
-      <c r="N13" s="13" t="n">
-        <v>0.0102</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="13">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M13" s="13">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="N13" s="13">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" s="9" t="s">
         <v>83</v>
       </c>
@@ -1470,20 +1758,20 @@
         <v>88</v>
       </c>
       <c r="J14" s="9"/>
-      <c r="K14" s="13" t="n">
+      <c r="K14" s="13">
         <v>0.17</v>
       </c>
-      <c r="L14" s="13" t="n">
+      <c r="L14" s="13">
         <v>0.115</v>
       </c>
-      <c r="M14" s="13" t="n">
-        <v>0.546</v>
-      </c>
-      <c r="N14" s="13" t="n">
-        <v>0.3163</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M14" s="13">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0.31630000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="B15" s="9" t="s">
         <v>89</v>
       </c>
@@ -1509,20 +1797,20 @@
         <v>94</v>
       </c>
       <c r="J15" s="9"/>
-      <c r="K15" s="13" t="n">
+      <c r="K15" s="13">
         <v>0.2</v>
       </c>
-      <c r="L15" s="13" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="M15" s="13" t="n">
-        <v>0.0693</v>
-      </c>
-      <c r="N15" s="13" t="n">
-        <v>0.04208</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="13">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="M15" s="13">
+        <v>6.93E-2</v>
+      </c>
+      <c r="N15" s="13">
+        <v>4.2079999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="B16" s="9" t="s">
         <v>95</v>
       </c>
@@ -1548,20 +1836,20 @@
         <v>100</v>
       </c>
       <c r="J16" s="9"/>
-      <c r="K16" s="13" t="n">
+      <c r="K16" s="13">
         <v>0.32</v>
       </c>
-      <c r="L16" s="13" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="M16" s="13" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N16" s="13" t="n">
-        <v>0.092</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L16" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N16" s="13">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
       <c r="B17" s="9" t="s">
         <v>101</v>
       </c>
@@ -1587,20 +1875,20 @@
         <v>107</v>
       </c>
       <c r="J17" s="9"/>
-      <c r="K17" s="13" t="n">
+      <c r="K17" s="13">
         <v>0.1</v>
       </c>
       <c r="L17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="13" t="n">
-        <v>0.0114</v>
-      </c>
-      <c r="N17" s="13" t="n">
-        <v>0.00416</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M17" s="13">
+        <v>1.14E-2</v>
+      </c>
+      <c r="N17" s="13">
+        <v>4.1599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18" s="9" t="s">
         <v>108</v>
       </c>
@@ -1626,20 +1914,20 @@
         <v>114</v>
       </c>
       <c r="J18" s="9"/>
-      <c r="K18" s="13" t="n">
+      <c r="K18" s="13">
         <v>0.2</v>
       </c>
-      <c r="L18" s="13" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M18" s="13" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="N18" s="13" t="n">
-        <v>0.037</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L18" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M18" s="13">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="N18" s="13">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19" s="9" t="s">
         <v>115</v>
       </c>
@@ -1659,20 +1947,20 @@
         <v>119</v>
       </c>
       <c r="J19" s="9"/>
-      <c r="K19" s="13" t="n">
+      <c r="K19" s="13">
         <v>0.48</v>
       </c>
-      <c r="L19" s="13" t="n">
+      <c r="L19" s="13">
         <v>0.45</v>
       </c>
-      <c r="M19" s="13" t="n">
+      <c r="M19" s="13">
         <v>0.35</v>
       </c>
-      <c r="N19" s="13" t="n">
+      <c r="N19" s="13">
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:14">
       <c r="B20" s="9" t="s">
         <v>120</v>
       </c>
@@ -1692,20 +1980,20 @@
         <v>124</v>
       </c>
       <c r="J20" s="9"/>
-      <c r="K20" s="13" t="n">
+      <c r="K20" s="13">
         <v>0.21</v>
       </c>
-      <c r="L20" s="13" t="n">
+      <c r="L20" s="13">
         <v>0.2</v>
       </c>
-      <c r="M20" s="13" t="n">
+      <c r="M20" s="13">
         <v>0.18</v>
       </c>
       <c r="N20" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:14">
       <c r="B21" s="9" t="s">
         <v>126</v>
       </c>
@@ -1729,20 +2017,20 @@
         <v>132</v>
       </c>
       <c r="J21" s="9"/>
-      <c r="K21" s="13" t="n">
+      <c r="K21" s="13">
         <v>1.41</v>
       </c>
-      <c r="L21" s="13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M21" s="13" t="n">
+      <c r="L21" s="13">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M21" s="13">
         <v>0.83</v>
       </c>
-      <c r="N21" s="13" t="n">
+      <c r="N21" s="13">
         <v>0.52</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:14">
       <c r="B22" s="9" t="s">
         <v>133</v>
       </c>
@@ -1764,20 +2052,20 @@
       <c r="J22" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="K22" s="13" t="n">
+      <c r="K22" s="13">
         <v>1.79</v>
       </c>
-      <c r="L22" s="13" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="M22" s="13" t="n">
+      <c r="L22" s="13">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M22" s="13">
         <v>1.03</v>
       </c>
-      <c r="N22" s="13" t="n">
-        <v>0.677</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="28.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N22" s="13">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="28">
       <c r="B23" s="9" t="s">
         <v>139</v>
       </c>
@@ -1799,20 +2087,20 @@
         <v>33</v>
       </c>
       <c r="J23" s="9"/>
-      <c r="K23" s="13" t="n">
+      <c r="K23" s="13">
         <v>0.95</v>
       </c>
-      <c r="L23" s="13" t="n">
-        <v>0.839</v>
-      </c>
-      <c r="M23" s="13" t="n">
-        <v>0.6934</v>
-      </c>
-      <c r="N23" s="13" t="n">
-        <v>0.54775</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L23" s="13">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0.69340000000000002</v>
+      </c>
+      <c r="N23" s="13">
+        <v>0.54774999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
       <c r="B24" s="9" t="s">
         <v>141</v>
       </c>
@@ -1838,28 +2126,28 @@
         <v>146</v>
       </c>
       <c r="J24" s="9"/>
-      <c r="K24" s="13" t="n">
+      <c r="K24" s="13">
         <v>0.1</v>
       </c>
-      <c r="L24" s="13" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="M24" s="13" t="n">
-        <v>0.0281</v>
-      </c>
-      <c r="N24" s="13" t="n">
-        <v>0.0153</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L24" s="13">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="M24" s="13">
+        <v>2.81E-2</v>
+      </c>
+      <c r="N24" s="13">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
       <c r="B25" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="9" t="n">
-        <v>5.1</v>
+      <c r="D25" s="9">
+        <v>5.0999999999999996</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>148</v>
@@ -1877,8 +2165,8 @@
         <v>152</v>
       </c>
       <c r="J25" s="9"/>
-      <c r="K25" s="13" t="n">
-        <v>0.07</v>
+      <c r="K25" s="13">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L25" s="13" t="s">
         <v>26</v>
@@ -1886,18 +2174,18 @@
       <c r="M25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="13" t="n">
+      <c r="N25" s="13">
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:14">
       <c r="B26" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D26" s="9">
         <v>68</v>
       </c>
       <c r="E26" s="9" t="s">
@@ -1916,20 +2204,20 @@
         <v>156</v>
       </c>
       <c r="J26" s="9"/>
-      <c r="K26" s="13" t="n">
+      <c r="K26" s="13">
         <v>0.1</v>
       </c>
-      <c r="L26" s="13" t="n">
+      <c r="L26" s="13">
         <v>0.01</v>
       </c>
-      <c r="M26" s="13" t="n">
+      <c r="M26" s="13">
         <v>0.01</v>
       </c>
-      <c r="N26" s="13" t="n">
+      <c r="N26" s="13">
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:14">
       <c r="B27" s="9" t="s">
         <v>157</v>
       </c>
@@ -1949,20 +2237,20 @@
         <v>161</v>
       </c>
       <c r="J27" s="9"/>
-      <c r="K27" s="13" t="n">
+      <c r="K27" s="13">
         <v>0.33</v>
       </c>
-      <c r="L27" s="13" t="n">
+      <c r="L27" s="13">
         <v>0.32</v>
       </c>
-      <c r="M27" s="13" t="n">
+      <c r="M27" s="13">
         <v>0.22</v>
       </c>
-      <c r="N27" s="13" t="n">
+      <c r="N27" s="13">
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:14">
       <c r="B28" s="9" t="s">
         <v>157</v>
       </c>
@@ -1975,27 +2263,27 @@
       <c r="G28" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H28" s="9" t="n">
+      <c r="H28" s="9">
         <v>61300821021</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>164</v>
       </c>
       <c r="J28" s="9"/>
-      <c r="K28" s="13" t="n">
+      <c r="K28" s="13">
         <v>0.7</v>
       </c>
       <c r="L28" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="13" t="n">
+      <c r="M28" s="13">
         <v>0.63</v>
       </c>
       <c r="N28" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:14">
       <c r="B29" s="9" t="s">
         <v>157</v>
       </c>
@@ -2015,20 +2303,20 @@
         <v>168</v>
       </c>
       <c r="J29" s="9"/>
-      <c r="K29" s="13" t="n">
+      <c r="K29" s="13">
         <v>1.08</v>
       </c>
-      <c r="L29" s="13" t="n">
+      <c r="L29" s="13">
         <v>0.97</v>
       </c>
-      <c r="M29" s="13" t="n">
+      <c r="M29" s="13">
         <v>0.79</v>
       </c>
-      <c r="N29" s="13" t="n">
+      <c r="N29" s="13">
         <v>0.54</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:14">
       <c r="B30" s="9" t="s">
         <v>169</v>
       </c>
@@ -2050,20 +2338,20 @@
         <v>174</v>
       </c>
       <c r="J30" s="9"/>
-      <c r="K30" s="13" t="n">
+      <c r="K30" s="13">
         <v>0.17</v>
       </c>
       <c r="L30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="13" t="n">
+      <c r="M30" s="13">
         <v>0.15</v>
       </c>
-      <c r="N30" s="13" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="31" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N30" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" s="14" customFormat="1">
       <c r="B31" s="15" t="s">
         <v>175</v>
       </c>
@@ -2085,20 +2373,20 @@
         <v>179</v>
       </c>
       <c r="J31" s="15"/>
-      <c r="K31" s="19" t="n">
+      <c r="K31" s="19">
         <v>3.14</v>
       </c>
-      <c r="L31" s="19" t="n">
+      <c r="L31" s="19">
         <v>2.62</v>
       </c>
-      <c r="M31" s="19" t="n">
+      <c r="M31" s="19">
         <v>1.99</v>
       </c>
       <c r="N31" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:14">
       <c r="B32" s="12" t="s">
         <v>180</v>
       </c>
@@ -2124,28 +2412,28 @@
         <v>185</v>
       </c>
       <c r="J32" s="9"/>
-      <c r="K32" s="13" t="n">
+      <c r="K32" s="13">
         <v>0.09</v>
       </c>
-      <c r="L32" s="13" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="M32" s="13" t="n">
-        <v>0.0585</v>
-      </c>
-      <c r="N32" s="13" t="n">
-        <f aca="false">-C320603</f>
+      <c r="L32" s="13">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="M32" s="13">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="N32" s="13">
+        <f>-C320603</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:14">
       <c r="B33" s="12" t="s">
         <v>186</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="9" t="n">
+      <c r="D33" s="9">
         <v>100</v>
       </c>
       <c r="E33" s="9" t="s">
@@ -2164,27 +2452,27 @@
         <v>191</v>
       </c>
       <c r="J33" s="9"/>
-      <c r="K33" s="13" t="n">
+      <c r="K33" s="13">
         <v>0.08</v>
       </c>
-      <c r="L33" s="13" t="n">
-        <v>0.069</v>
-      </c>
-      <c r="M33" s="13" t="n">
-        <v>0.0408</v>
-      </c>
-      <c r="N33" s="13" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L33" s="13">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M33" s="13">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="N33" s="13">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
       <c r="B34" s="9" t="s">
         <v>192</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="9" t="n">
+      <c r="D34" s="9">
         <v>649</v>
       </c>
       <c r="E34" s="9"/>
@@ -2201,20 +2489,20 @@
         <v>196</v>
       </c>
       <c r="J34" s="9"/>
-      <c r="K34" s="13" t="n">
+      <c r="K34" s="13">
         <v>0.1</v>
       </c>
-      <c r="L34" s="13" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="M34" s="13" t="n">
-        <v>0.0105</v>
-      </c>
-      <c r="N34" s="13" t="n">
-        <v>0.00384</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L34" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M34" s="13">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="N34" s="13">
+        <v>3.8400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
       <c r="B35" s="9" t="s">
         <v>197</v>
       </c>
@@ -2238,20 +2526,20 @@
         <v>201</v>
       </c>
       <c r="J35" s="9"/>
-      <c r="K35" s="13" t="n">
+      <c r="K35" s="13">
         <v>0.1</v>
       </c>
-      <c r="L35" s="13" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="M35" s="13" t="n">
-        <v>0.0114</v>
-      </c>
-      <c r="N35" s="13" t="n">
-        <v>0.00416</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L35" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M35" s="13">
+        <v>1.14E-2</v>
+      </c>
+      <c r="N35" s="13">
+        <v>4.1599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
       <c r="B36" s="9" t="s">
         <v>202</v>
       </c>
@@ -2277,100 +2565,100 @@
         <v>207</v>
       </c>
       <c r="J36" s="9"/>
-      <c r="K36" s="13" t="n">
+      <c r="K36" s="13">
         <v>0.1</v>
       </c>
-      <c r="L36" s="13" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="M36" s="13" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="N36" s="13" t="n">
-        <v>0.0063</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1" t="s">
+      <c r="L36" s="13">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="M36" s="13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N36" s="13">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="15" customHeight="1">
+      <c r="B37" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C37" s="0"/>
-      <c r="D37" s="0"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="1" t="s">
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="K37" s="21" t="n">
+      <c r="K37" s="21">
         <v>1.26</v>
       </c>
-      <c r="L37" s="21" t="n">
+      <c r="L37" s="21">
         <v>1.048</v>
       </c>
-      <c r="M37" s="21" t="n">
-        <v>0.776</v>
-      </c>
-      <c r="N37" s="21" t="n">
-        <v>0.5044</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="1" t="s">
+      <c r="M37" s="21">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="N37" s="21">
+        <v>0.50439999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="15" customHeight="1">
+      <c r="B38" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="0"/>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="1" t="s">
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="K38" s="21" t="n">
+      <c r="K38" s="21">
         <v>1.93</v>
       </c>
-      <c r="L38" s="21" t="n">
-        <v>1.596</v>
-      </c>
-      <c r="M38" s="21" t="n">
+      <c r="L38" s="21">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="M38" s="21">
         <v>1.19</v>
       </c>
-      <c r="N38" s="21" t="n">
-        <v>0.884</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N38" s="21">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="15" customHeight="1">
       <c r="B39" s="22" t="s">
         <v>214</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="6" t="s">
         <v>216</v>
       </c>
       <c r="F39" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="6" t="s">
         <v>218</v>
       </c>
       <c r="H39" s="22" t="s">
@@ -2379,33 +2667,33 @@
       <c r="I39" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="K39" s="21" t="n">
+      <c r="K39" s="21">
         <v>1.82</v>
       </c>
-      <c r="L39" s="21" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="M39" s="21" t="n">
-        <v>1.5556</v>
+      <c r="L39" s="21">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="M39" s="21">
+        <v>1.5556000000000001</v>
       </c>
       <c r="N39" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="28.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="1" t="s">
+    <row r="40" spans="2:14" ht="15" customHeight="1">
+      <c r="B40" s="6" t="s">
         <v>220</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="6" t="s">
         <v>222</v>
       </c>
       <c r="F40" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="6" t="s">
         <v>224</v>
       </c>
       <c r="H40" s="22" t="s">
@@ -2414,30 +2702,30 @@
       <c r="I40" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="K40" s="23" t="n">
+      <c r="K40" s="23">
         <v>6.97</v>
       </c>
-      <c r="L40" s="23" t="n">
+      <c r="L40" s="23">
         <v>6.26</v>
       </c>
-      <c r="M40" s="23" t="n">
+      <c r="M40" s="23">
         <v>5.157</v>
       </c>
-      <c r="N40" s="23" t="n">
+      <c r="N40" s="23">
         <v>3.375</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="1" t="s">
+    <row r="41" spans="2:14" ht="15" customHeight="1">
+      <c r="B41" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="6" t="s">
         <v>228</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H41" s="22" t="s">
@@ -2446,39 +2734,77 @@
       <c r="I41" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="K41" s="23" t="n">
+      <c r="K41" s="23">
         <v>0.73</v>
       </c>
-      <c r="L41" s="23" t="n">
+      <c r="L41" s="23">
         <v>0.65</v>
       </c>
-      <c r="M41" s="23" t="n">
-        <v>0.538</v>
-      </c>
-      <c r="N41" s="23" t="n">
-        <v>0.42502</v>
-      </c>
-    </row>
+      <c r="M41" s="23">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="N41" s="23">
+        <v>0.42502000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="15" customHeight="1">
+      <c r="B42" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="6">
+        <v>402</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L42" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M42" s="6">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="N42" s="6">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:N1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18060" windowHeight="17560" tabRatio="986"/>
+    <workbookView xWindow="12880" yWindow="0" windowWidth="18060" windowHeight="17560" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="mBom" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="239">
   <si>
     <t>Part</t>
   </si>
@@ -730,6 +730,12 @@
   </si>
   <si>
     <t>GRM1555C1H110JA01D</t>
+  </si>
+  <si>
+    <t>0.1uF Capacitor</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
   </si>
 </sst>
 </file>
@@ -839,21 +845,6 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -907,6 +898,21 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1241,1564 +1247,1601 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="1025" width="8.83203125" style="6"/>
+    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="1025" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="5"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="7">
+      <c r="A2" s="22"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="2">
         <v>1</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="2">
         <v>10</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="2">
         <v>100</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="13">
+      <c r="J3" s="4"/>
+      <c r="K3" s="8">
         <v>0.92</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="8">
         <v>0.81699999999999995</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="8">
         <v>0.64500000000000002</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="8">
         <v>0.39679999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="13">
+      <c r="J4" s="4"/>
+      <c r="K4" s="8">
         <v>15.75</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="8">
         <v>14.318</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="8">
         <v>12.170299999999999</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="8">
         <v>9.5214700000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="14" customFormat="1">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:14" s="9" customFormat="1">
+      <c r="B5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="19">
+      <c r="J5" s="10"/>
+      <c r="K5" s="14">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="14">
         <v>0.47299999999999998</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="14">
         <v>0.378</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="14">
         <v>0.3024</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="13">
+      <c r="J6" s="4"/>
+      <c r="K6" s="8">
         <v>1.26</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="8">
         <v>1.2250000000000001</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="13">
+      <c r="J7" s="4"/>
+      <c r="K7" s="8">
         <v>1.49</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="8">
         <v>1.24</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="8">
         <v>0.94</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="13">
+      <c r="J8" s="4"/>
+      <c r="K8" s="8">
         <v>0.97</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="8">
         <v>0.752</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="8">
         <v>0.57379999999999998</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="8">
         <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="20">
+      <c r="J9" s="4"/>
+      <c r="K9" s="15">
         <v>0.95</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="15">
         <v>0.84</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="15">
         <v>0.69</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="15">
         <v>0.54</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="14" customFormat="1">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="1:14" s="9" customFormat="1">
+      <c r="B10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="19">
+      <c r="J10" s="10"/>
+      <c r="K10" s="14">
         <v>0.6</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="14">
         <v>0.5</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="14">
         <v>0.39900000000000002</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="14">
         <v>0.31900000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="13">
+      <c r="J11" s="4"/>
+      <c r="K11" s="8">
         <v>0.4</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="8">
         <v>0.31</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="8">
         <v>0.216</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="8">
         <v>0.11</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="13">
+      <c r="J12" s="4"/>
+      <c r="K12" s="8">
         <v>0.1</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="8">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="8">
         <v>6.3E-3</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="13">
+      <c r="J13" s="4"/>
+      <c r="K13" s="8">
         <v>0.1</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="8">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="8">
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="13">
+      <c r="J14" s="4"/>
+      <c r="K14" s="8">
         <v>0.17</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="8">
         <v>0.115</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="8">
         <v>0.54600000000000004</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="8">
         <v>0.31630000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="13">
+      <c r="J15" s="4"/>
+      <c r="K15" s="8">
         <v>0.2</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="8">
         <v>0.13600000000000001</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="8">
         <v>6.93E-2</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="8">
         <v>4.2079999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="13">
+      <c r="J16" s="4"/>
+      <c r="K16" s="8">
         <v>0.32</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="8">
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="13">
+      <c r="J17" s="4"/>
+      <c r="K17" s="8">
         <v>0.1</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="8">
         <v>1.14E-2</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="8">
         <v>4.1599999999999996E-3</v>
       </c>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="13">
+      <c r="J18" s="4"/>
+      <c r="K18" s="8">
         <v>0.2</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="8">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="8">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="13">
+      <c r="J19" s="4"/>
+      <c r="K19" s="8">
         <v>0.48</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="8">
         <v>0.45</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="8">
         <v>0.35</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="8">
         <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="13">
+      <c r="J20" s="4"/>
+      <c r="K20" s="8">
         <v>0.21</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="8">
         <v>0.2</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="8">
         <v>0.18</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="N20" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="13">
+      <c r="J21" s="4"/>
+      <c r="K21" s="8">
         <v>1.41</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="8">
         <v>1.1100000000000001</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="8">
         <v>0.83</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="8">
         <v>0.52</v>
       </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9" t="s">
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="8">
         <v>1.79</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="8">
         <v>1.1599999999999999</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="8">
         <v>1.03</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="8">
         <v>0.67700000000000005</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="28">
-      <c r="B23" s="9" t="s">
+    <row r="23" spans="2:14" ht="14" customHeight="1">
+      <c r="B23" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="12" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="13">
+      <c r="J23" s="4"/>
+      <c r="K23" s="8">
         <v>0.95</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="8">
         <v>0.83899999999999997</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="8">
         <v>0.69340000000000002</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="8">
         <v>0.54774999999999996</v>
       </c>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="13">
+      <c r="J24" s="4"/>
+      <c r="K24" s="8">
         <v>0.1</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="8">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="8">
         <v>2.81E-2</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="8">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="13">
+      <c r="J25" s="4"/>
+      <c r="K25" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="8">
         <v>0.02</v>
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="4">
         <v>68</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="13">
+      <c r="J26" s="4"/>
+      <c r="K26" s="8">
         <v>0.1</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="8">
         <v>0.01</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="8">
         <v>0.01</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="8">
         <v>0.01</v>
       </c>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="13">
+      <c r="J27" s="4"/>
+      <c r="K27" s="8">
         <v>0.33</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="8">
         <v>0.32</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="8">
         <v>0.22</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="4">
         <v>61300821021</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="13">
+      <c r="J28" s="4"/>
+      <c r="K28" s="8">
         <v>0.7</v>
       </c>
-      <c r="L28" s="13" t="s">
+      <c r="L28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="8">
         <v>0.63</v>
       </c>
-      <c r="N28" s="13" t="s">
+      <c r="N28" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="13">
+      <c r="J29" s="4"/>
+      <c r="K29" s="8">
         <v>1.08</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="8">
         <v>0.97</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="8">
         <v>0.79</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="8">
         <v>0.54</v>
       </c>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="13">
+      <c r="J30" s="4"/>
+      <c r="K30" s="8">
         <v>0.17</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="8">
         <v>0.15</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="8">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:14" s="14" customFormat="1">
-      <c r="B31" s="15" t="s">
+    <row r="31" spans="2:14" s="9" customFormat="1">
+      <c r="B31" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15" t="s">
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="J31" s="15"/>
-      <c r="K31" s="19">
+      <c r="J31" s="10"/>
+      <c r="K31" s="14">
         <v>3.14</v>
       </c>
-      <c r="L31" s="19">
+      <c r="L31" s="14">
         <v>2.62</v>
       </c>
-      <c r="M31" s="19">
+      <c r="M31" s="14">
         <v>1.99</v>
       </c>
-      <c r="N31" s="19" t="s">
+      <c r="N31" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="13">
+      <c r="J32" s="4"/>
+      <c r="K32" s="8">
         <v>0.09</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="8">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="8">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="8">
         <f>-C320603</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="4">
         <v>100</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="13">
+      <c r="J33" s="4"/>
+      <c r="K33" s="8">
         <v>0.08</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="8">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="8">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="8">
         <v>2.4E-2</v>
       </c>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="4">
         <v>649</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="12" t="s">
+      <c r="E34" s="4"/>
+      <c r="F34" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="13">
+      <c r="J34" s="4"/>
+      <c r="K34" s="8">
         <v>0.1</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="8">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="8">
         <v>3.8400000000000001E-3</v>
       </c>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="12" t="s">
+      <c r="E35" s="4"/>
+      <c r="F35" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="13">
+      <c r="J35" s="4"/>
+      <c r="K35" s="8">
         <v>0.1</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="8">
         <v>1.14E-2</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="8">
         <v>4.1599999999999996E-3</v>
       </c>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="13">
+      <c r="J36" s="4"/>
+      <c r="K36" s="8">
         <v>0.1</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="8">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="8">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="8">
         <v>6.3E-3</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="15" customHeight="1">
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="16">
         <v>1.26</v>
       </c>
-      <c r="L37" s="21">
+      <c r="L37" s="16">
         <v>1.048</v>
       </c>
-      <c r="M37" s="21">
+      <c r="M37" s="16">
         <v>0.77600000000000002</v>
       </c>
-      <c r="N37" s="21">
+      <c r="N37" s="16">
         <v>0.50439999999999996</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15" customHeight="1">
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="16">
         <v>1.93</v>
       </c>
-      <c r="L38" s="21">
+      <c r="L38" s="16">
         <v>1.5960000000000001</v>
       </c>
-      <c r="M38" s="21">
+      <c r="M38" s="16">
         <v>1.19</v>
       </c>
-      <c r="N38" s="21">
+      <c r="N38" s="16">
         <v>0.88400000000000001</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15" customHeight="1">
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="I39" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="16">
         <v>1.82</v>
       </c>
-      <c r="L39" s="21">
+      <c r="L39" s="16">
         <v>1.7290000000000001</v>
       </c>
-      <c r="M39" s="21">
+      <c r="M39" s="16">
         <v>1.5556000000000001</v>
       </c>
-      <c r="N39" s="21" t="s">
+      <c r="N39" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15" customHeight="1">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="K40" s="23">
+      <c r="K40" s="18">
         <v>6.97</v>
       </c>
-      <c r="L40" s="23">
+      <c r="L40" s="18">
         <v>6.26</v>
       </c>
-      <c r="M40" s="23">
+      <c r="M40" s="18">
         <v>5.157</v>
       </c>
-      <c r="N40" s="23">
+      <c r="N40" s="18">
         <v>3.375</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="15" customHeight="1">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="I41" s="22" t="s">
+      <c r="I41" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="K41" s="23">
+      <c r="K41" s="18">
         <v>0.73</v>
       </c>
-      <c r="L41" s="23">
+      <c r="L41" s="18">
         <v>0.65</v>
       </c>
-      <c r="M41" s="23">
+      <c r="M41" s="18">
         <v>0.53800000000000003</v>
       </c>
-      <c r="N41" s="23">
+      <c r="N41" s="18">
         <v>0.42502000000000001</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15" customHeight="1">
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="1">
         <v>402</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="1">
         <v>0.1</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="1">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42" s="1">
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="15" customHeight="1"/>
+    <row r="43" spans="2:14" ht="15" customHeight="1">
+      <c r="B43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" s="1">
+        <v>603</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L43" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="N43" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12880" yWindow="0" windowWidth="18060" windowHeight="17560" tabRatio="986"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="mBom" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="245">
   <si>
     <t>Part</t>
   </si>
@@ -736,6 +736,24 @@
   </si>
   <si>
     <t>0.1uF</t>
+  </si>
+  <si>
+    <t>120 ohm resistor</t>
+  </si>
+  <si>
+    <t>120ohm</t>
+  </si>
+  <si>
+    <t>1/8 W</t>
+  </si>
+  <si>
+    <t>RES SMD 120 OHM 5% 1/8W 0402</t>
+  </si>
+  <si>
+    <t>CRCW0402120RJNEDHP</t>
+  </si>
+  <si>
+    <t>541-120YACT-ND</t>
   </si>
 </sst>
 </file>
@@ -899,19 +917,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1245,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK43"/>
+  <dimension ref="A1:AMK44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1268,19 +1286,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="20" t="s">
@@ -1289,33 +1307,33 @@
       <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="22"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="20"/>
-      <c r="C2" s="23"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="2">
         <v>1</v>
       </c>
@@ -2829,19 +2847,57 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" s="1">
+        <v>402</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M44" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="N44" s="1">
+        <v>2.3560000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="986"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="mBom" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="145621" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="254">
   <si>
     <t>Part</t>
   </si>
@@ -754,17 +754,45 @@
   </si>
   <si>
     <t>541-120YACT-ND</t>
+  </si>
+  <si>
+    <t>TVS array</t>
+  </si>
+  <si>
+    <t>14-UDFN</t>
+  </si>
+  <si>
+    <t>TVS Array</t>
+  </si>
+  <si>
+    <t>ESD8008MUTAG</t>
+  </si>
+  <si>
+    <t>ESD8008MUTAGOSCT-ND</t>
+  </si>
+  <si>
+    <t>LMV344IDR</t>
+  </si>
+  <si>
+    <t>14-SOIC</t>
+  </si>
+  <si>
+    <t>Rail-to-Rail Output CMOS Operational Amplifier</t>
+  </si>
+  <si>
+    <t>296-20925-1-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -779,8 +807,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -793,8 +828,14 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -857,11 +898,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -917,20 +973,30 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -938,6 +1004,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1263,42 +1334,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK44"/>
+  <dimension ref="A1:AMK46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="1025" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="1025" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="20" t="s">
@@ -1307,33 +1378,33 @@
       <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
       <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="22"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="2">
         <v>1</v>
       </c>
@@ -1347,7 +1418,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1384,7 +1455,7 @@
         <v>0.39679999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
@@ -1421,7 +1492,7 @@
         <v>9.5214700000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1">
+    <row r="5" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>25</v>
       </c>
@@ -1456,7 +1527,7 @@
         <v>0.3024</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1493,7 +1564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
@@ -1530,7 +1601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>44</v>
       </c>
@@ -1567,7 +1638,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1604,7 +1675,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1">
+    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>56</v>
       </c>
@@ -1641,7 +1712,7 @@
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>62</v>
       </c>
@@ -1678,7 +1749,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>69</v>
       </c>
@@ -1717,7 +1788,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>77</v>
       </c>
@@ -1756,7 +1827,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>83</v>
       </c>
@@ -1795,7 +1866,7 @@
         <v>0.31630000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>89</v>
       </c>
@@ -1834,7 +1905,7 @@
         <v>4.2079999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>95</v>
       </c>
@@ -1873,7 +1944,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>101</v>
       </c>
@@ -1912,7 +1983,7 @@
         <v>4.1599999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>108</v>
       </c>
@@ -1951,7 +2022,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>115</v>
       </c>
@@ -1984,7 +2055,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>120</v>
       </c>
@@ -2017,7 +2088,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>126</v>
       </c>
@@ -2054,7 +2125,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>133</v>
       </c>
@@ -2089,7 +2160,7 @@
         <v>0.67700000000000005</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="14" customHeight="1">
+    <row r="23" spans="2:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>139</v>
       </c>
@@ -2124,7 +2195,7 @@
         <v>0.54774999999999996</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>141</v>
       </c>
@@ -2163,7 +2234,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>147</v>
       </c>
@@ -2202,7 +2273,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>153</v>
       </c>
@@ -2241,7 +2312,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>157</v>
       </c>
@@ -2274,7 +2345,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>157</v>
       </c>
@@ -2307,7 +2378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>157</v>
       </c>
@@ -2340,7 +2411,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>169</v>
       </c>
@@ -2375,7 +2446,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:14" s="9" customFormat="1">
+    <row r="31" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>175</v>
       </c>
@@ -2410,7 +2481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>180</v>
       </c>
@@ -2450,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>186</v>
       </c>
@@ -2489,7 +2560,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>192</v>
       </c>
@@ -2526,7 +2597,7 @@
         <v>3.8400000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>197</v>
       </c>
@@ -2563,7 +2634,7 @@
         <v>4.1599999999999996E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>202</v>
       </c>
@@ -2602,7 +2673,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="15" customHeight="1">
+    <row r="37" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>157</v>
       </c>
@@ -2634,7 +2705,7 @@
         <v>0.50439999999999996</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="15" customHeight="1">
+    <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>157</v>
       </c>
@@ -2666,7 +2737,7 @@
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="15" customHeight="1">
+    <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
         <v>214</v>
       </c>
@@ -2704,7 +2775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="15" customHeight="1">
+    <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>220</v>
       </c>
@@ -2739,7 +2810,7 @@
         <v>3.375</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="15" customHeight="1">
+    <row r="41" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>227</v>
       </c>
@@ -2771,7 +2842,7 @@
         <v>0.42502000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="15" customHeight="1">
+    <row r="42" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>233</v>
       </c>
@@ -2796,20 +2867,20 @@
       <c r="I42" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="27">
         <v>0.1</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="27">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="27">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42" s="27">
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="15" customHeight="1">
+    <row r="43" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>237</v>
       </c>
@@ -2834,20 +2905,20 @@
       <c r="I43" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" s="27">
         <v>0.1</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43" s="27">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43" s="27">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43" s="27">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>239</v>
       </c>
@@ -2872,34 +2943,99 @@
       <c r="I44" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="27">
         <v>0.17</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="27">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="27">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44" s="27">
         <v>2.3560000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="K45" s="27">
+        <v>0.77</v>
+      </c>
+      <c r="L45" s="27">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="M45" s="27">
+        <v>0.51990000000000003</v>
+      </c>
+      <c r="N45" s="27">
+        <v>0.30854999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="K46" s="27">
+        <v>0.9</v>
+      </c>
+      <c r="L46" s="27">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="M46" s="27">
+        <v>0.63</v>
+      </c>
+      <c r="N46" s="27">
+        <v>0.38750000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/mBom.xlsx
+++ b/mBom.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="986"/>
+    <workbookView xWindow="1540" yWindow="21680" windowWidth="24580" windowHeight="21160" tabRatio="986" activeTab="1"/>
+    <workbookView xWindow="280" yWindow="21800" windowWidth="26900" windowHeight="16920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="mBom" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="540">
   <si>
     <t>Part</t>
   </si>
@@ -781,6 +783,864 @@
   </si>
   <si>
     <t>296-20925-1-ND</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>RESISTOR</t>
+  </si>
+  <si>
+    <t>PACKAGE</t>
+  </si>
+  <si>
+    <t>LPQF-176</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>CAPACITOR</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>C36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C43</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C44</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R14</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>10pF</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>C45</t>
+  </si>
+  <si>
+    <t>C47</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>C38</t>
+  </si>
+  <si>
+    <t>C39</t>
+  </si>
+  <si>
+    <t>C46</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>4.4nF</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>1.8V LDO</t>
+  </si>
+  <si>
+    <t>SOT32-5</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>32.768kHz Crystal</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Ptype FET</t>
+  </si>
+  <si>
+    <t>SOT23</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>Schotkey Diode</t>
+  </si>
+  <si>
+    <t>SOD-523F</t>
+  </si>
+  <si>
+    <t>BSS84</t>
+  </si>
+  <si>
+    <t>Microprocessor</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>SD Card Slot</t>
+  </si>
+  <si>
+    <t>HIROSE_DM3D</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>DAC Chip</t>
+  </si>
+  <si>
+    <t>TFSOP-10</t>
+  </si>
+  <si>
+    <t>DAC124S085CIMM</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>SCAP</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>TVS Diodes</t>
+  </si>
+  <si>
+    <t>UFDFN-14</t>
+  </si>
+  <si>
+    <t>ESD8008</t>
+  </si>
+  <si>
+    <t>RED LED</t>
+  </si>
+  <si>
+    <t>LS_Q976</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>OPAMP</t>
+  </si>
+  <si>
+    <t>SOIC-14</t>
+  </si>
+  <si>
+    <t>LVM344IDR</t>
+  </si>
+  <si>
+    <t>J17</t>
+  </si>
+  <si>
+    <t>J18</t>
+  </si>
+  <si>
+    <t>J19</t>
+  </si>
+  <si>
+    <t>J20</t>
+  </si>
+  <si>
+    <t>MA02-1</t>
+  </si>
+  <si>
+    <t>HEADER</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>ANGLED HEADER</t>
+  </si>
+  <si>
+    <t>MA03-2W</t>
+  </si>
+  <si>
+    <t>C83</t>
+  </si>
+  <si>
+    <t>C85</t>
+  </si>
+  <si>
+    <t>C86</t>
+  </si>
+  <si>
+    <t>R37</t>
+  </si>
+  <si>
+    <t>C42</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>AT24C04D</t>
+  </si>
+  <si>
+    <t>SO08</t>
+  </si>
+  <si>
+    <t>EEPROM</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>LED3</t>
+  </si>
+  <si>
+    <t>LED4</t>
+  </si>
+  <si>
+    <t>LED5</t>
+  </si>
+  <si>
+    <t>LED6</t>
+  </si>
+  <si>
+    <t>LED7</t>
+  </si>
+  <si>
+    <t>LED8</t>
+  </si>
+  <si>
+    <t>LED9</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>MA04-2W</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>CAN TRANCIEVER</t>
+  </si>
+  <si>
+    <t>SOIC-8</t>
+  </si>
+  <si>
+    <t>MAX3051ESA</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>3.0V LDO</t>
+  </si>
+  <si>
+    <t>WDFN6</t>
+  </si>
+  <si>
+    <t>C84</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>DFN4SMD</t>
+  </si>
+  <si>
+    <t>NX32255A</t>
+  </si>
+  <si>
+    <t>TACTILE SWITCH</t>
+  </si>
+  <si>
+    <t>SMT</t>
+  </si>
+  <si>
+    <t>PTS645</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>2X10_BOXHEADER</t>
+  </si>
+  <si>
+    <t>SWD CONNECTOR</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>5.0V-&gt;3.3V SPS</t>
+  </si>
+  <si>
+    <t>J22</t>
+  </si>
+  <si>
+    <t>USB CONNECTOR</t>
+  </si>
+  <si>
+    <t>ZX62D-B-5P8</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>KINGBRITE_RGBLED_1.6X1.26</t>
+  </si>
+  <si>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>USB_PHY</t>
+  </si>
+  <si>
+    <t>QFN32-5X5</t>
+  </si>
+  <si>
+    <t>USB3320</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>R36</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>R44</t>
+  </si>
+  <si>
+    <t>R45</t>
+  </si>
+  <si>
+    <t>R46</t>
+  </si>
+  <si>
+    <t>R47</t>
+  </si>
+  <si>
+    <t>R48</t>
+  </si>
+  <si>
+    <t>R49</t>
+  </si>
+  <si>
+    <t>R50</t>
+  </si>
+  <si>
+    <t>R51</t>
+  </si>
+  <si>
+    <t>R52</t>
+  </si>
+  <si>
+    <t>R53</t>
+  </si>
+  <si>
+    <t>R54</t>
+  </si>
+  <si>
+    <t>R55</t>
+  </si>
+  <si>
+    <t>R56</t>
+  </si>
+  <si>
+    <t>R57</t>
+  </si>
+  <si>
+    <t>R58</t>
+  </si>
+  <si>
+    <t>R59</t>
+  </si>
+  <si>
+    <t>R60</t>
+  </si>
+  <si>
+    <t>R61</t>
+  </si>
+  <si>
+    <t>R62</t>
+  </si>
+  <si>
+    <t>C49</t>
+  </si>
+  <si>
+    <t>C50</t>
+  </si>
+  <si>
+    <t>C51</t>
+  </si>
+  <si>
+    <t>C52</t>
+  </si>
+  <si>
+    <t>C53</t>
+  </si>
+  <si>
+    <t>C54</t>
+  </si>
+  <si>
+    <t>C55</t>
+  </si>
+  <si>
+    <t>C56</t>
+  </si>
+  <si>
+    <t>C57</t>
+  </si>
+  <si>
+    <t>C58</t>
+  </si>
+  <si>
+    <t>C59</t>
+  </si>
+  <si>
+    <t>C60</t>
+  </si>
+  <si>
+    <t>C61</t>
+  </si>
+  <si>
+    <t>C62</t>
+  </si>
+  <si>
+    <t>C63</t>
+  </si>
+  <si>
+    <t>C64</t>
+  </si>
+  <si>
+    <t>C65</t>
+  </si>
+  <si>
+    <t>C66</t>
+  </si>
+  <si>
+    <t>C67</t>
+  </si>
+  <si>
+    <t>C68</t>
+  </si>
+  <si>
+    <t>C69</t>
+  </si>
+  <si>
+    <t>C70</t>
+  </si>
+  <si>
+    <t>C71</t>
+  </si>
+  <si>
+    <t>C72</t>
+  </si>
+  <si>
+    <t>C73</t>
+  </si>
+  <si>
+    <t>C74</t>
+  </si>
+  <si>
+    <t>C75</t>
+  </si>
+  <si>
+    <t>C76</t>
+  </si>
+  <si>
+    <t>C77</t>
+  </si>
+  <si>
+    <t>C78</t>
+  </si>
+  <si>
+    <t>C79</t>
+  </si>
+  <si>
+    <t>C80</t>
+  </si>
+  <si>
+    <t>C81</t>
+  </si>
+  <si>
+    <t>C82</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>JACK-PLUG</t>
+  </si>
+  <si>
+    <t>DC POWER JACK</t>
+  </si>
+  <si>
+    <t>J16</t>
+  </si>
+  <si>
+    <t>MA02-2W</t>
+  </si>
+  <si>
+    <t>MA02-2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>J15</t>
+  </si>
+  <si>
+    <t>J21</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>MA03-2</t>
+  </si>
+  <si>
+    <t>MA03-1</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>MA10-2</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>J11</t>
+  </si>
+  <si>
+    <t>MA10-2W</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>PJ0478A</t>
+  </si>
+  <si>
+    <t>399-8939-1-ND</t>
   </si>
 </sst>
 </file>
@@ -790,9 +1650,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -814,8 +1674,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,6 +1712,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,10 +1801,154 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -973,6 +2004,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -988,18 +2032,184 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="145">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1336,75 +2546,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="1025" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.5" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.1640625" style="1" customWidth="1"/>
+    <col min="11" max="14" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="1025" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:14" ht="14" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="27"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="2">
         <v>1</v>
       </c>
@@ -1418,934 +2631,944 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="8">
-        <v>0.92</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0.39679999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
+      <c r="B3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="1">
+        <v>603</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="21">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M3" s="21">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="N3" s="21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>21</v>
+        <v>72</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>24</v>
+        <v>81</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="8">
-        <v>15.75</v>
+        <v>0.1</v>
       </c>
       <c r="L4" s="8">
-        <v>14.318</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="M4" s="8">
-        <v>12.170299999999999</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="N4" s="8">
-        <v>9.5214700000000008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="14">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="M5" s="14">
-        <v>0.378</v>
-      </c>
-      <c r="N5" s="14">
-        <v>0.3024</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="9" customFormat="1">
+      <c r="B5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="4">
+        <v>100</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="L5" s="8">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M5" s="8">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="N5" s="8">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>33</v>
+        <v>70</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>36</v>
+        <v>75</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="8">
-        <v>1.26</v>
+        <v>0.1</v>
       </c>
       <c r="L6" s="8">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="N6" s="8">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>203</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>40</v>
+        <v>111</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>43</v>
+        <v>205</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="8">
-        <v>1.49</v>
+        <v>0.1</v>
       </c>
       <c r="L7" s="8">
-        <v>1.24</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="M7" s="8">
-        <v>0.94</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N7" s="8">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="E8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>47</v>
+        <v>72</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>50</v>
+        <v>99</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="8">
-        <v>0.97</v>
+        <v>0.32</v>
       </c>
       <c r="L8" s="8">
-        <v>0.752</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M8" s="8">
-        <v>0.57379999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N8" s="8">
-        <v>0.40799999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="6" t="s">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="1">
+        <v>402</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K9" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="21">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M9" s="21">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="N9" s="21">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="9" customFormat="1">
+      <c r="B10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M10" s="8">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="N10" s="8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="1">
+        <v>402</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K11" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="L11" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M11" s="21">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="N11" s="21">
+        <v>2.3560000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="56">
+      <c r="B12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I12" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="L9" s="15">
-        <v>0.84</v>
-      </c>
-      <c r="M9" s="15">
-        <v>0.69</v>
-      </c>
-      <c r="N9" s="15">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="L10" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="14">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0.31900000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0.31</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0.216</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="8">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="L12" s="8">
-        <v>2.5000000000000001E-2</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="M12" s="8">
-        <v>1.1599999999999999E-2</v>
+        <v>0.69340000000000002</v>
       </c>
       <c r="N12" s="8">
-        <v>6.3E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.54774999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="B13" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>79</v>
+      <c r="F13" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="8">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="L13" s="8">
-        <v>4.1000000000000002E-2</v>
+        <v>0.115</v>
       </c>
       <c r="M13" s="8">
-        <v>1.8700000000000001E-2</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="N13" s="8">
-        <v>1.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="8">
-        <v>0.17</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0.115</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="N14" s="8">
         <v>0.31630000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="28">
+      <c r="B14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="18">
+        <v>6.97</v>
+      </c>
+      <c r="L14" s="18">
+        <v>6.26</v>
+      </c>
+      <c r="M14" s="18">
+        <v>5.157</v>
+      </c>
+      <c r="N14" s="18">
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L15" s="8">
-        <v>0.13600000000000001</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="M15" s="8">
-        <v>6.93E-2</v>
+        <v>2.81E-2</v>
       </c>
       <c r="N15" s="8">
-        <v>4.2079999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="B16" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="8">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="L16" s="8">
-        <v>0.28000000000000003</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="M16" s="8">
-        <v>0.14000000000000001</v>
+        <v>6.93E-2</v>
       </c>
       <c r="N16" s="8">
-        <v>9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4.2079999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
       <c r="B17" s="4" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>102</v>
+      <c r="D17" s="4">
+        <v>5.0999999999999996</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>148</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>107</v>
+        <v>150</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="8">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="8">
-        <v>1.14E-2</v>
+      <c r="M17" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="N17" s="8">
-        <v>4.1599999999999996E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18" s="4" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>112</v>
+        <v>198</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="8">
-        <v>0.14000000000000001</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M18" s="8">
-        <v>6.6000000000000003E-2</v>
+        <v>1.14E-2</v>
       </c>
       <c r="N18" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4.1599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+        <v>192</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="4">
+        <v>649</v>
+      </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
-        <v>116</v>
+      <c r="F19" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>119</v>
+        <v>194</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="8">
-        <v>0.48</v>
+        <v>0.1</v>
       </c>
       <c r="L19" s="8">
-        <v>0.45</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M19" s="8">
-        <v>0.35</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="N19" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3.8400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
       <c r="B20" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="4">
+        <v>68</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="F20" s="4" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="8">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="L20" s="8">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="M20" s="8">
-        <v>0.18</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
       <c r="B21" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D21" s="4" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>129</v>
+        <v>103</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>132</v>
+        <v>105</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="8">
-        <v>1.41</v>
-      </c>
-      <c r="L21" s="8">
-        <v>1.1100000000000001</v>
+        <v>0.1</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="M21" s="8">
-        <v>0.83</v>
+        <v>1.14E-2</v>
       </c>
       <c r="N21" s="8">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4.1599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
       <c r="B22" s="4" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4" t="s">
-        <v>138</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" s="4"/>
       <c r="K22" s="8">
-        <v>1.79</v>
-      </c>
-      <c r="L22" s="8">
-        <v>1.1599999999999999</v>
+        <v>0.17</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="M22" s="8">
-        <v>1.03</v>
+        <v>0.15</v>
       </c>
       <c r="N22" s="8">
-        <v>0.67700000000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="8">
-        <v>0.95</v>
-      </c>
-      <c r="L23" s="8">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0.69340000000000002</v>
-      </c>
-      <c r="N23" s="8">
-        <v>0.54774999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="L24" s="8">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="M24" s="8">
-        <v>2.81E-2</v>
-      </c>
-      <c r="N24" s="8">
-        <v>1.5299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="5" t="s">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="14" customHeight="1">
+      <c r="B23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" s="18">
+        <v>0.73</v>
+      </c>
+      <c r="L23" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="M23" s="18">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="N23" s="18">
+        <v>0.42502000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="L24" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="M24" s="14">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="N24" s="14">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="10"/>
+      <c r="K25" s="14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="M25" s="14">
+        <v>0.378</v>
+      </c>
+      <c r="N25" s="14">
+        <v>0.3024</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="L26" s="21">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="M26" s="21">
+        <v>0.63</v>
+      </c>
+      <c r="N26" s="21">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N25" s="8">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="4">
-        <v>68</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="L26" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="M26" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="N26" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>161</v>
+      <c r="D27" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="8">
-        <v>0.33</v>
+        <v>0.09</v>
       </c>
       <c r="L27" s="8">
-        <v>0.32</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="M27" s="8">
-        <v>0.22</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="N27" s="8">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <f>-C320598</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
       <c r="B28" s="4" t="s">
         <v>157</v>
       </c>
@@ -2353,32 +3576,32 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H28" s="4">
-        <v>61300821021</v>
+        <v>159</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>26</v>
+        <v>0.33</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0.32</v>
       </c>
       <c r="M28" s="8">
-        <v>0.63</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0.22</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
       <c r="B29" s="4" t="s">
         <v>157</v>
       </c>
@@ -2386,641 +3609,635 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="H29" s="4">
+        <v>61300821021</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="8">
-        <v>1.08</v>
-      </c>
-      <c r="L29" s="8">
-        <v>0.97</v>
+        <v>0.7</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="M29" s="8">
-        <v>0.79</v>
-      </c>
-      <c r="N29" s="8">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0.63</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
       <c r="B30" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>170</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="8">
-        <v>0.17</v>
-      </c>
-      <c r="L30" s="8" t="s">
+        <v>1.08</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="M30" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="N30" s="8">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" s="9" customFormat="1">
+      <c r="B31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="16">
+        <v>1.26</v>
+      </c>
+      <c r="L31" s="16">
+        <v>1.048</v>
+      </c>
+      <c r="M31" s="16">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="N31" s="16">
+        <v>0.50439999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K32" s="16">
+        <v>1.93</v>
+      </c>
+      <c r="L32" s="16">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="M32" s="16">
+        <v>1.19</v>
+      </c>
+      <c r="N32" s="16">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="N30" s="8">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
+      <c r="E33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="K33" s="16">
+        <v>1.82</v>
+      </c>
+      <c r="L33" s="16">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="M33" s="16">
+        <v>1.5556000000000001</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I34" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="14">
+      <c r="J34" s="10"/>
+      <c r="K34" s="14">
         <v>3.14</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L34" s="14">
         <v>2.62</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M34" s="14">
         <v>1.99</v>
       </c>
-      <c r="N31" s="14" t="s">
+      <c r="N34" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="L32" s="8">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="M32" s="8">
-        <v>5.8500000000000003E-2</v>
-      </c>
-      <c r="N32" s="8">
-        <f>-C320603</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="4">
-        <v>100</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="L33" s="8">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="M33" s="8">
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="N33" s="8">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="4">
-        <v>649</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="L34" s="8">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M34" s="8">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="N34" s="8">
-        <v>3.8400000000000001E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14">
       <c r="B35" s="4" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="7" t="s">
-        <v>199</v>
+        <v>12</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>201</v>
+        <v>16</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="8">
-        <v>0.1</v>
+        <v>0.92</v>
       </c>
       <c r="L35" s="8">
-        <v>1.4999999999999999E-2</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="M35" s="8">
-        <v>1.14E-2</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="N35" s="8">
-        <v>4.1599999999999996E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0.39679999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
       <c r="B36" s="4" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>203</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>204</v>
+        <v>26</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>207</v>
+        <v>54</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J36" s="4"/>
-      <c r="K36" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="L36" s="8">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="M36" s="8">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="N36" s="8">
-        <v>6.3E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K37" s="16">
+      <c r="K36" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="L36" s="15">
+        <v>0.84</v>
+      </c>
+      <c r="M36" s="15">
+        <v>0.69</v>
+      </c>
+      <c r="N36" s="15">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="15" customHeight="1">
+      <c r="B37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0.752</v>
+      </c>
+      <c r="M37" s="8">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="N37" s="8">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="15" customHeight="1">
+      <c r="B38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="M38" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="15" customHeight="1">
+      <c r="B39" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K39" s="8">
+        <v>1.79</v>
+      </c>
+      <c r="L39" s="8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M39" s="8">
+        <v>1.03</v>
+      </c>
+      <c r="N39" s="8">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="15" customHeight="1">
+      <c r="B40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0.216</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="15" customHeight="1">
+      <c r="B41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="8">
+        <v>15.75</v>
+      </c>
+      <c r="L41" s="8">
+        <v>14.318</v>
+      </c>
+      <c r="M41" s="8">
+        <v>12.170299999999999</v>
+      </c>
+      <c r="N41" s="8">
+        <v>9.5214700000000008</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="15" customHeight="1">
+      <c r="B42" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="8">
+        <v>1.41</v>
+      </c>
+      <c r="L42" s="8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M42" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="N42" s="8">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="15" customHeight="1">
+      <c r="B43" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="M43" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="N43" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="15" thickBot="1">
+      <c r="B44" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="K44" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="L44" s="21">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="M44" s="21">
+        <v>0.51990000000000003</v>
+      </c>
+      <c r="N44" s="21">
+        <v>0.30854999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="15" thickBot="1">
+      <c r="B45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="8">
+        <v>1.49</v>
+      </c>
+      <c r="L45" s="8">
+        <v>1.24</v>
+      </c>
+      <c r="M45" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="8">
         <v>1.26</v>
       </c>
-      <c r="L37" s="16">
-        <v>1.048</v>
-      </c>
-      <c r="M37" s="16">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="N37" s="16">
-        <v>0.50439999999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K38" s="16">
-        <v>1.93</v>
-      </c>
-      <c r="L38" s="16">
-        <v>1.5960000000000001</v>
-      </c>
-      <c r="M38" s="16">
-        <v>1.19</v>
-      </c>
-      <c r="N38" s="16">
-        <v>0.88400000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="L46" s="8">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="M46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="K39" s="16">
-        <v>1.82</v>
-      </c>
-      <c r="L39" s="16">
-        <v>1.7290000000000001</v>
-      </c>
-      <c r="M39" s="16">
-        <v>1.5556000000000001</v>
-      </c>
-      <c r="N39" s="16" t="s">
+      <c r="N46" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="K40" s="18">
-        <v>6.97</v>
-      </c>
-      <c r="L40" s="18">
-        <v>6.26</v>
-      </c>
-      <c r="M40" s="18">
-        <v>5.157</v>
-      </c>
-      <c r="N40" s="18">
-        <v>3.375</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="K41" s="18">
-        <v>0.73</v>
-      </c>
-      <c r="L41" s="18">
-        <v>0.65</v>
-      </c>
-      <c r="M41" s="18">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="N41" s="18">
-        <v>0.42502000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C42" s="1">
-        <v>402</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="K42" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="L42" s="27">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="M42" s="27">
-        <v>2.1899999999999999E-2</v>
-      </c>
-      <c r="N42" s="27">
-        <v>1.17E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C43" s="1">
-        <v>603</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K43" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="L43" s="27">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M43" s="27">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="N43" s="27">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C44" s="1">
-        <v>402</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="K44" s="27">
-        <v>0.17</v>
-      </c>
-      <c r="L44" s="27">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M44" s="27">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="N44" s="27">
-        <v>2.3560000000000001E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="I45" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="K45" s="27">
-        <v>0.77</v>
-      </c>
-      <c r="L45" s="27">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="M45" s="27">
-        <v>0.51990000000000003</v>
-      </c>
-      <c r="N45" s="27">
-        <v>0.30854999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I46" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="K46" s="27">
-        <v>0.9</v>
-      </c>
-      <c r="L46" s="27">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="M46" s="27">
-        <v>0.63</v>
-      </c>
-      <c r="N46" s="27">
-        <v>0.38750000000000001</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="B3:N46">
+    <sortCondition ref="B3:B46"/>
+  </sortState>
   <mergeCells count="11">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -3035,9 +4252,3850 @@
     <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AN5" sqref="AN5:AQ5"/>
+    </sheetView>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="1">
+      <selection activeCell="X35" sqref="X35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="34" width="1.83203125" customWidth="1"/>
+    <col min="36" max="36" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43">
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+    </row>
+    <row r="2" spans="1:43" ht="15" thickBot="1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL2" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM2" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>10</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
+      <c r="A3" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3">
+        <v>3</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK3" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN3" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AO3" s="21">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AP3" s="21">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="AQ3" s="21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
+      <c r="A4" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="T4" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="U4" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="V4" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4">
+        <v>22</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK4" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL4" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AO4" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AP4" s="8">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="AQ4" s="8">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
+      <c r="A5" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK5" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL5" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM5" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="AN5" s="42">
+        <v>0.26</v>
+      </c>
+      <c r="AO5" s="42">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="AP5" s="42">
+        <v>0.1017</v>
+      </c>
+      <c r="AQ5" s="42">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
+      <c r="A6" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6">
+        <v>4</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK6" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL6" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="AO6" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AP6" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AQ6" s="8">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
+      <c r="A7" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7">
+        <v>2</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK7" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL7" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN7" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AO7" s="21">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="AP7" s="21">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="AQ7" s="21">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
+      <c r="A8" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8">
+        <v>9</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK8" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL8" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AO8" s="8">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="AP8" s="8">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="AQ8" s="8">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
+      <c r="A9" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9">
+        <v>3</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK9" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL9" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN9" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="AO9" s="8">
+        <v>0.115</v>
+      </c>
+      <c r="AP9" s="8">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AQ9" s="8">
+        <v>0.31630000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
+      <c r="A10" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10">
+        <v>2</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK10" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL10" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="AM10" s="37"/>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="A11" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11">
+        <v>2</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK11" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL11" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN11" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AO11" s="8">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AP11" s="8">
+        <v>6.93E-2</v>
+      </c>
+      <c r="AQ11" s="8">
+        <v>4.2079999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="A12" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="P12" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>494</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="T12" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="U12" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="V12" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="W12" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="X12" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y12" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="Z12" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA12" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB12" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="AC12" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="AD12" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="AE12" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="AF12" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="AG12" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="AH12" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="AI12">
+        <v>34</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK12" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL12" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="AM12" s="37"/>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="A13" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK13" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL13" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="AM13" s="37"/>
+    </row>
+    <row r="14" spans="1:43">
+      <c r="A14" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK14" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="AL14" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN14" s="8">
+        <v>1.41</v>
+      </c>
+      <c r="AO14" s="8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AP14" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="AQ14" s="8">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" s="31" customFormat="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="38"/>
+    </row>
+    <row r="16" spans="1:43">
+      <c r="A16" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16">
+        <v>4</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>352</v>
+      </c>
+      <c r="AK16" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="AL16" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN16" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="AO16" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="AP16" s="8">
+        <v>0.216</v>
+      </c>
+      <c r="AQ16" s="8">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" ht="16" customHeight="1">
+      <c r="A17" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17">
+        <v>15</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>380</v>
+      </c>
+      <c r="AK17" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL17" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM17" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="AN17" s="21">
+        <v>0.77</v>
+      </c>
+      <c r="AO17" s="21">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AP17" s="21">
+        <v>0.51990000000000003</v>
+      </c>
+      <c r="AQ17" s="21">
+        <v>0.30854999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" s="31" customFormat="1">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="32"/>
+      <c r="AO18" s="32"/>
+      <c r="AP18" s="32"/>
+      <c r="AQ18" s="32"/>
+    </row>
+    <row r="19" spans="1:43">
+      <c r="A19" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>520</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19">
+        <v>5</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK19" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="AL19" s="33"/>
+      <c r="AM19" s="37"/>
+    </row>
+    <row r="20" spans="1:43">
+      <c r="A20" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK20" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="AL20" s="33"/>
+      <c r="AM20" s="37"/>
+    </row>
+    <row r="21" spans="1:43">
+      <c r="A21" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK21" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="AL21" s="33"/>
+      <c r="AM21" s="37"/>
+    </row>
+    <row r="22" spans="1:43">
+      <c r="A22" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22">
+        <v>2</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK22" s="33" t="s">
+        <v>534</v>
+      </c>
+      <c r="AL22" s="33"/>
+      <c r="AM22" s="37"/>
+    </row>
+    <row r="23" spans="1:43">
+      <c r="A23" s="29" t="s">
+        <v>513</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>515</v>
+      </c>
+      <c r="AK23" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="AL23" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="AM23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN23" s="36">
+        <v>0.97</v>
+      </c>
+      <c r="AO23" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="AP23" s="36">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AQ23" s="36">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43">
+      <c r="A24" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24">
+        <v>2</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>397</v>
+      </c>
+      <c r="AK24" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="AL24" s="33"/>
+      <c r="AM24" s="37"/>
+    </row>
+    <row r="25" spans="1:43">
+      <c r="A25" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>397</v>
+      </c>
+      <c r="AK25" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="AL25" s="33"/>
+      <c r="AM25" s="37"/>
+    </row>
+    <row r="26" spans="1:43">
+      <c r="A26" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26">
+        <v>2</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>397</v>
+      </c>
+      <c r="AK26" s="33" t="s">
+        <v>528</v>
+      </c>
+      <c r="AL26" s="33"/>
+      <c r="AM26" s="37"/>
+    </row>
+    <row r="27" spans="1:43">
+      <c r="A27" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27">
+        <v>1</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>397</v>
+      </c>
+      <c r="AK27" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="AL27" s="33"/>
+      <c r="AM27" s="37"/>
+    </row>
+    <row r="28" spans="1:43">
+      <c r="A28" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28">
+        <v>2</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>397</v>
+      </c>
+      <c r="AK28" s="33" t="s">
+        <v>531</v>
+      </c>
+      <c r="AL28" s="33"/>
+      <c r="AM28" s="37"/>
+    </row>
+    <row r="29" spans="1:43">
+      <c r="A29" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29">
+        <v>1</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>436</v>
+      </c>
+      <c r="AK29" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="AL29" s="33"/>
+      <c r="AM29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN29" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="AO29" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="AP29" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="AQ29" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43">
+      <c r="A30" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
+      <c r="AI30">
+        <v>1</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>440</v>
+      </c>
+      <c r="AK30" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="AL30" s="33"/>
+      <c r="AM30" s="37"/>
+    </row>
+    <row r="31" spans="1:43" s="31" customFormat="1">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="30"/>
+      <c r="AH31" s="30"/>
+      <c r="AK31" s="34"/>
+      <c r="AL31" s="34"/>
+      <c r="AM31" s="38"/>
+    </row>
+    <row r="32" spans="1:43">
+      <c r="A32" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="29"/>
+      <c r="AI32">
+        <v>1</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL32" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="AM32" s="37"/>
+    </row>
+    <row r="33" spans="1:43">
+      <c r="A33" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="29"/>
+      <c r="AI33">
+        <v>8</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK33" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL33" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="AM33" s="37"/>
+    </row>
+    <row r="34" spans="1:43" s="31" customFormat="1">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="30"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="30"/>
+      <c r="AG34" s="30"/>
+      <c r="AH34" s="30"/>
+      <c r="AK34" s="34"/>
+      <c r="AL34" s="34"/>
+      <c r="AM34" s="38"/>
+    </row>
+    <row r="35" spans="1:43">
+      <c r="A35" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="29"/>
+      <c r="AI35">
+        <v>1</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>346</v>
+      </c>
+      <c r="AK35" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="AL35" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="AM35" s="37"/>
+    </row>
+    <row r="36" spans="1:43" s="31" customFormat="1">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="30"/>
+      <c r="AG36" s="30"/>
+      <c r="AH36" s="30"/>
+      <c r="AK36" s="34"/>
+      <c r="AL36" s="34"/>
+      <c r="AM36" s="38"/>
+    </row>
+    <row r="37" spans="1:43">
+      <c r="A37" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="29"/>
+      <c r="AI37">
+        <v>2</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK37" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL37" s="33">
+        <v>50</v>
+      </c>
+      <c r="AM37" s="37"/>
+    </row>
+    <row r="38" spans="1:43">
+      <c r="A38" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="29"/>
+      <c r="AI38">
+        <v>1</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK38" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL38" s="33">
+        <v>100</v>
+      </c>
+      <c r="AM38" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN38" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="AO38" s="8">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="AP38" s="8">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="AQ38" s="8">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43">
+      <c r="A39" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="29"/>
+      <c r="AI39">
+        <v>1</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK39" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL39" s="33">
+        <v>120</v>
+      </c>
+      <c r="AM39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN39" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="AO39" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AP39" s="21">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="AQ39" s="21">
+        <v>2.3560000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43">
+      <c r="A40" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="29"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="29"/>
+      <c r="AE40" s="29"/>
+      <c r="AF40" s="29"/>
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="29"/>
+      <c r="AI40">
+        <v>8</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK40" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL40" s="33">
+        <v>649</v>
+      </c>
+      <c r="AM40" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN40" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AO40" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AP40" s="8">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="AQ40" s="8">
+        <v>3.8400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43">
+      <c r="A41" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="29"/>
+      <c r="AI41">
+        <v>1</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK41" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL41" s="33">
+        <v>675</v>
+      </c>
+      <c r="AM41" s="37"/>
+    </row>
+    <row r="42" spans="1:43">
+      <c r="A42" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="29"/>
+      <c r="AF42" s="29"/>
+      <c r="AG42" s="29"/>
+      <c r="AH42" s="29"/>
+      <c r="AI42">
+        <v>1</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK42" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL42" s="33">
+        <v>820</v>
+      </c>
+      <c r="AM42" s="37"/>
+    </row>
+    <row r="43" spans="1:43">
+      <c r="A43" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="29"/>
+      <c r="AI43">
+        <v>2</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK43" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL43" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM43" s="37"/>
+    </row>
+    <row r="44" spans="1:43">
+      <c r="A44" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="29"/>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="29"/>
+      <c r="AI44">
+        <v>1</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK44" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL44" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM44" s="37"/>
+    </row>
+    <row r="45" spans="1:43">
+      <c r="A45" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="J45" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="K45" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="29"/>
+      <c r="AF45" s="29"/>
+      <c r="AG45" s="29"/>
+      <c r="AH45" s="29"/>
+      <c r="AI45">
+        <v>11</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK45" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL45" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="AM45" s="37"/>
+    </row>
+    <row r="46" spans="1:43">
+      <c r="A46" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
+      <c r="AE46" s="29"/>
+      <c r="AF46" s="29"/>
+      <c r="AG46" s="29"/>
+      <c r="AH46" s="29"/>
+      <c r="AI46">
+        <v>1</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK46" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL46" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM46" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN46" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AO46" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AP46" s="8">
+        <v>1.14E-2</v>
+      </c>
+      <c r="AQ46" s="8">
+        <v>4.1599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43">
+      <c r="A47" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29"/>
+      <c r="AI47">
+        <v>1</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK47" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL47" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM47" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN47" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AO47" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP47" s="8">
+        <v>1.14E-2</v>
+      </c>
+      <c r="AQ47" s="8">
+        <v>4.1599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43">
+      <c r="A48" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="I48" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="J48" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>458</v>
+      </c>
+      <c r="L48" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="M48" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="N48" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="O48" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q48" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="R48" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="S48" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="T48" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="U48" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="V48" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="W48" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="X48" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y48" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="Z48" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA48" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB48" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC48" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="AD48" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE48" s="29"/>
+      <c r="AF48" s="29"/>
+      <c r="AG48" s="29"/>
+      <c r="AH48" s="29"/>
+      <c r="AI48">
+        <v>30</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK48" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL48" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="AM48" s="37"/>
+    </row>
+    <row r="49" spans="1:43" s="31" customFormat="1">
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="30"/>
+      <c r="AA49" s="30"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="30"/>
+      <c r="AE49" s="30"/>
+      <c r="AF49" s="30"/>
+      <c r="AG49" s="30"/>
+      <c r="AH49" s="30"/>
+      <c r="AK49" s="34"/>
+      <c r="AL49" s="34"/>
+      <c r="AM49" s="38"/>
+    </row>
+    <row r="50" spans="1:43">
+      <c r="A50" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="29"/>
+      <c r="AE50" s="29"/>
+      <c r="AF50" s="29"/>
+      <c r="AG50" s="29"/>
+      <c r="AH50" s="29"/>
+      <c r="AI50">
+        <v>2</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK50" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="AL50" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="AM50" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN50" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="AO50" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AP50" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="AQ50" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43" s="31" customFormat="1">
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30"/>
+      <c r="AA51" s="30"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="30"/>
+      <c r="AD51" s="30"/>
+      <c r="AE51" s="30"/>
+      <c r="AF51" s="30"/>
+      <c r="AG51" s="30"/>
+      <c r="AH51" s="30"/>
+      <c r="AK51" s="34"/>
+      <c r="AL51" s="34"/>
+      <c r="AM51" s="38"/>
+      <c r="AN51" s="35"/>
+      <c r="AO51" s="35"/>
+      <c r="AP51" s="35"/>
+      <c r="AQ51" s="35"/>
+    </row>
+    <row r="52" spans="1:43">
+      <c r="A52" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+      <c r="AA52" s="29"/>
+      <c r="AB52" s="29"/>
+      <c r="AC52" s="29"/>
+      <c r="AD52" s="29"/>
+      <c r="AE52" s="29"/>
+      <c r="AF52" s="29"/>
+      <c r="AG52" s="29"/>
+      <c r="AH52" s="29"/>
+      <c r="AI52">
+        <v>1</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>355</v>
+      </c>
+      <c r="AK52" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL52" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM52" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN52" s="8">
+        <v>15.75</v>
+      </c>
+      <c r="AO52" s="8">
+        <v>14.318</v>
+      </c>
+      <c r="AP52" s="8">
+        <v>12.170299999999999</v>
+      </c>
+      <c r="AQ52" s="8">
+        <v>9.5214700000000008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43">
+      <c r="A53" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="29"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="29"/>
+      <c r="AA53" s="29"/>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="29"/>
+      <c r="AD53" s="29"/>
+      <c r="AE53" s="29"/>
+      <c r="AF53" s="29"/>
+      <c r="AG53" s="29"/>
+      <c r="AH53" s="29"/>
+      <c r="AI53">
+        <v>1</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>425</v>
+      </c>
+      <c r="AK53" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="AL53" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN53" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="AO53" s="8">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AP53" s="8">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="AQ53" s="8">
+        <v>0.39679999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43">
+      <c r="A54" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="29"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="29"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="29"/>
+      <c r="Z54" s="29"/>
+      <c r="AA54" s="29"/>
+      <c r="AB54" s="29"/>
+      <c r="AC54" s="29"/>
+      <c r="AD54" s="29"/>
+      <c r="AE54" s="29"/>
+      <c r="AF54" s="29"/>
+      <c r="AG54" s="29"/>
+      <c r="AH54" s="29"/>
+      <c r="AI54">
+        <v>1</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>438</v>
+      </c>
+      <c r="AK54" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL54" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN54" s="8">
+        <v>1.26</v>
+      </c>
+      <c r="AO54" s="8">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="AP54" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ54" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:43">
+      <c r="A55" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="29"/>
+      <c r="Z55" s="29"/>
+      <c r="AA55" s="29"/>
+      <c r="AB55" s="29"/>
+      <c r="AC55" s="29"/>
+      <c r="AD55" s="29"/>
+      <c r="AE55" s="29"/>
+      <c r="AF55" s="29"/>
+      <c r="AG55" s="29"/>
+      <c r="AH55" s="29"/>
+      <c r="AI55">
+        <v>1</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK55" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="AL55" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM55" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN55" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="AO55" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP55" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AQ55" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43">
+      <c r="A56" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="29"/>
+      <c r="Z56" s="29"/>
+      <c r="AA56" s="29"/>
+      <c r="AB56" s="29"/>
+      <c r="AC56" s="29"/>
+      <c r="AD56" s="29"/>
+      <c r="AE56" s="29"/>
+      <c r="AF56" s="29"/>
+      <c r="AG56" s="29"/>
+      <c r="AH56" s="29"/>
+      <c r="AI56">
+        <v>1</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>421</v>
+      </c>
+      <c r="AK56" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="AL56" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="AM56" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN56" s="16">
+        <v>1.82</v>
+      </c>
+      <c r="AO56" s="16">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="AP56" s="16">
+        <v>1.5556000000000001</v>
+      </c>
+      <c r="AQ56" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:43" ht="15" customHeight="1">
+      <c r="A57" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29"/>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="29"/>
+      <c r="Z57" s="29"/>
+      <c r="AA57" s="29"/>
+      <c r="AB57" s="29"/>
+      <c r="AC57" s="29"/>
+      <c r="AD57" s="29"/>
+      <c r="AE57" s="29"/>
+      <c r="AF57" s="29"/>
+      <c r="AG57" s="29"/>
+      <c r="AH57" s="29"/>
+      <c r="AI57">
+        <v>1</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>360</v>
+      </c>
+      <c r="AK57" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="AL57" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="AM57" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN57" s="18">
+        <v>6.97</v>
+      </c>
+      <c r="AO57" s="18">
+        <v>6.26</v>
+      </c>
+      <c r="AP57" s="18">
+        <v>5.157</v>
+      </c>
+      <c r="AQ57" s="18">
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43">
+      <c r="A58" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29"/>
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="29"/>
+      <c r="AA58" s="29"/>
+      <c r="AB58" s="29"/>
+      <c r="AC58" s="29"/>
+      <c r="AD58" s="29"/>
+      <c r="AE58" s="29"/>
+      <c r="AF58" s="29"/>
+      <c r="AG58" s="29"/>
+      <c r="AH58" s="29"/>
+      <c r="AI58">
+        <v>4</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>389</v>
+      </c>
+      <c r="AK58" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="AL58" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="AM58" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN58" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="AO58" s="21">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="AP58" s="21">
+        <v>0.63</v>
+      </c>
+      <c r="AQ58" s="21">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43">
+      <c r="A59" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="29"/>
+      <c r="V59" s="29"/>
+      <c r="W59" s="29"/>
+      <c r="X59" s="29"/>
+      <c r="Y59" s="29"/>
+      <c r="Z59" s="29"/>
+      <c r="AA59" s="29"/>
+      <c r="AB59" s="29"/>
+      <c r="AC59" s="29"/>
+      <c r="AD59" s="29"/>
+      <c r="AE59" s="29"/>
+      <c r="AF59" s="29"/>
+      <c r="AG59" s="29"/>
+      <c r="AH59" s="29"/>
+      <c r="AI59">
+        <v>1</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>409</v>
+      </c>
+      <c r="AK59" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="AL59" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="AM59" s="37"/>
+    </row>
+    <row r="60" spans="1:43">
+      <c r="A60" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="29"/>
+      <c r="V60" s="29"/>
+      <c r="W60" s="29"/>
+      <c r="X60" s="29"/>
+      <c r="Y60" s="29"/>
+      <c r="Z60" s="29"/>
+      <c r="AA60" s="29"/>
+      <c r="AB60" s="29"/>
+      <c r="AC60" s="29"/>
+      <c r="AD60" s="29"/>
+      <c r="AE60" s="29"/>
+      <c r="AF60" s="29"/>
+      <c r="AG60" s="29"/>
+      <c r="AH60" s="29"/>
+      <c r="AI60">
+        <v>1</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>357</v>
+      </c>
+      <c r="AL60" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="AM60" s="37"/>
+    </row>
+    <row r="61" spans="1:43">
+      <c r="A61" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
+      <c r="U61" s="29"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="29"/>
+      <c r="X61" s="29"/>
+      <c r="Y61" s="29"/>
+      <c r="Z61" s="29"/>
+      <c r="AA61" s="29"/>
+      <c r="AB61" s="29"/>
+      <c r="AC61" s="29"/>
+      <c r="AD61" s="29"/>
+      <c r="AE61" s="29"/>
+      <c r="AF61" s="29"/>
+      <c r="AG61" s="29"/>
+      <c r="AH61" s="29"/>
+      <c r="AI61">
+        <v>1</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>445</v>
+      </c>
+      <c r="AK61" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="AL61" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="AM61" s="37"/>
+    </row>
+    <row r="62" spans="1:43" s="31" customFormat="1">
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="30"/>
+      <c r="U62" s="30"/>
+      <c r="V62" s="30"/>
+      <c r="W62" s="30"/>
+      <c r="X62" s="30"/>
+      <c r="Y62" s="30"/>
+      <c r="Z62" s="30"/>
+      <c r="AA62" s="30"/>
+      <c r="AB62" s="30"/>
+      <c r="AC62" s="30"/>
+      <c r="AD62" s="30"/>
+      <c r="AE62" s="30"/>
+      <c r="AF62" s="30"/>
+      <c r="AG62" s="30"/>
+      <c r="AH62" s="30"/>
+      <c r="AK62" s="34"/>
+      <c r="AL62" s="34"/>
+      <c r="AM62" s="38"/>
+      <c r="AN62" s="32"/>
+      <c r="AO62" s="32"/>
+      <c r="AP62" s="32"/>
+      <c r="AQ62" s="32"/>
+    </row>
+    <row r="63" spans="1:43">
+      <c r="A63" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="29"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="29"/>
+      <c r="X63" s="29"/>
+      <c r="Y63" s="29"/>
+      <c r="Z63" s="29"/>
+      <c r="AA63" s="29"/>
+      <c r="AB63" s="29"/>
+      <c r="AC63" s="29"/>
+      <c r="AD63" s="29"/>
+      <c r="AE63" s="29"/>
+      <c r="AF63" s="29"/>
+      <c r="AG63" s="29"/>
+      <c r="AH63" s="29"/>
+      <c r="AI63">
+        <v>1</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL63" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM63" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN63" s="18">
+        <v>0.73</v>
+      </c>
+      <c r="AO63" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="AP63" s="18">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="AQ63" s="18">
+        <v>0.42502000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43">
+      <c r="A64" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="29"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="29"/>
+      <c r="W64" s="29"/>
+      <c r="X64" s="29"/>
+      <c r="Y64" s="29"/>
+      <c r="Z64" s="29"/>
+      <c r="AA64" s="29"/>
+      <c r="AB64" s="29"/>
+      <c r="AC64" s="29"/>
+      <c r="AD64" s="29"/>
+      <c r="AE64" s="29"/>
+      <c r="AF64" s="29"/>
+      <c r="AG64" s="29"/>
+      <c r="AH64" s="29"/>
+      <c r="AI64">
+        <v>1</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK64" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="AL64" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="AM64" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN64" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="AO64" s="15">
+        <v>0.84</v>
+      </c>
+      <c r="AP64" s="15">
+        <v>0.69</v>
+      </c>
+      <c r="AQ64" s="15">
+        <v>0.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A19:AP30">
+    <sortCondition ref="AJ19:AJ30"/>
+    <sortCondition ref="AK19:AK30"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="AN1:AQ1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="AK3 AK4:AK13 AK37:AK48 AK33" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
